--- a/2021 Fin VNese authors career for R.xlsx
+++ b/2021 Fin VNese authors career for R.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Dropbox/Science Evaluation/Most Cited Scientists 2019 and 2020/Updated 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E218DDAF-1B34-FE4B-A0B7-FC1EAFF99EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FC65BC-5640-1345-B522-2314AA5BF1B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="2220" windowWidth="41020" windowHeight="24600" xr2:uid="{0855CFFF-609F-2346-8C19-DB6490F2963D}"/>
+    <workbookView xWindow="2040" yWindow="2060" windowWidth="41020" windowHeight="24600" xr2:uid="{0855CFFF-609F-2346-8C19-DB6490F2963D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="380">
   <si>
     <t>Duy Tan University</t>
   </si>
@@ -904,6 +904,276 @@
   </si>
   <si>
     <t>p.field</t>
+  </si>
+  <si>
+    <t>Bui, Elisabeth</t>
+  </si>
+  <si>
+    <t>CSIRO Land and Water</t>
+  </si>
+  <si>
+    <t>Bui, Tien D.</t>
+  </si>
+  <si>
+    <t>Concordia University</t>
+  </si>
+  <si>
+    <t>Bui, Tinh Quoc</t>
+  </si>
+  <si>
+    <t>Tokyo Institute of Technology</t>
+  </si>
+  <si>
+    <t>jpn</t>
+  </si>
+  <si>
+    <t>Do, D. D.</t>
+  </si>
+  <si>
+    <t>The University of Queensland</t>
+  </si>
+  <si>
+    <t>Do, DInh Thuan</t>
+  </si>
+  <si>
+    <t>Asia University</t>
+  </si>
+  <si>
+    <t>twn</t>
+  </si>
+  <si>
+    <t>Do, Minh N.</t>
+  </si>
+  <si>
+    <t>University of Illinois Urbana-Champaign</t>
+  </si>
+  <si>
+    <t>Duong, Tim Q.</t>
+  </si>
+  <si>
+    <t>Albert Einstein College of Medicine of Yeshiva University</t>
+  </si>
+  <si>
+    <t>Neurology &amp; Neurosurgery</t>
+  </si>
+  <si>
+    <t>Duong, Trung Q.</t>
+  </si>
+  <si>
+    <t>Ho, Carl Ngai Man</t>
+  </si>
+  <si>
+    <t>University of Manitoba</t>
+  </si>
+  <si>
+    <t>Ho, Chao Hung</t>
+  </si>
+  <si>
+    <t>Veterans General Hospital-Taipei</t>
+  </si>
+  <si>
+    <t>General &amp; Internal Medicine</t>
+  </si>
+  <si>
+    <t>Ho, Chi Tang</t>
+  </si>
+  <si>
+    <t>Rutgers University–New Brunswick</t>
+  </si>
+  <si>
+    <t>Ho, Chien</t>
+  </si>
+  <si>
+    <t>Carnegie Mellon University</t>
+  </si>
+  <si>
+    <t>Biochemistry &amp; Molecular Biology</t>
+  </si>
+  <si>
+    <t>Ho, Chii Dong</t>
+  </si>
+  <si>
+    <t>Tamkang University</t>
+  </si>
+  <si>
+    <t>Ho, Ho Pui</t>
+  </si>
+  <si>
+    <t>Chinese University of Hong Kong</t>
+  </si>
+  <si>
+    <t>hkg</t>
+  </si>
+  <si>
+    <t>A-Star, Institute for Infocomm Research</t>
+  </si>
+  <si>
+    <t>Hoang, Jenny K.</t>
+  </si>
+  <si>
+    <t>Johns Hopkins School of Medicine</t>
+  </si>
+  <si>
+    <t>Nuclear Medicine &amp; Medical Imaging</t>
+  </si>
+  <si>
+    <t>Hoang, Mai P.</t>
+  </si>
+  <si>
+    <t>Massachusetts General Hospital</t>
+  </si>
+  <si>
+    <t>Huynh, Du Q.</t>
+  </si>
+  <si>
+    <t>The University of Western Australia</t>
+  </si>
+  <si>
+    <t>Huynh, H. T.</t>
+  </si>
+  <si>
+    <t>NASA Glenn Research Center</t>
+  </si>
+  <si>
+    <t>Huynh, Han Vinh</t>
+  </si>
+  <si>
+    <t>National University of Singapore</t>
+  </si>
+  <si>
+    <t>Huynh, Hung</t>
+  </si>
+  <si>
+    <t>National Cancer Centre, Singapore</t>
+  </si>
+  <si>
+    <t>Le, Dung T.</t>
+  </si>
+  <si>
+    <t>The Sidney Kimmel Comprehensive Cancer Center</t>
+  </si>
+  <si>
+    <t>Le, Khoa N.</t>
+  </si>
+  <si>
+    <t>Western Sydney University</t>
+  </si>
+  <si>
+    <t>Lehoang, Phuc</t>
+  </si>
+  <si>
+    <t>Sorbonne Universite</t>
+  </si>
+  <si>
+    <t>Pham, Anh Vu</t>
+  </si>
+  <si>
+    <t>University of California, Davis</t>
+  </si>
+  <si>
+    <t>Pham, Christine</t>
+  </si>
+  <si>
+    <t>Washington University School of Medicine in St. Louis</t>
+  </si>
+  <si>
+    <t>Immunology</t>
+  </si>
+  <si>
+    <t>Pham, Dinh Tuan</t>
+  </si>
+  <si>
+    <t>Laboratory of Modelling and Computation</t>
+  </si>
+  <si>
+    <t>Pham, Duc Truong</t>
+  </si>
+  <si>
+    <t>University of Birmingham</t>
+  </si>
+  <si>
+    <t>Pham, Dzung L.</t>
+  </si>
+  <si>
+    <t>HJF</t>
+  </si>
+  <si>
+    <t>Pham, Hoang</t>
+  </si>
+  <si>
+    <t>Pham, Khanh D.</t>
+  </si>
+  <si>
+    <t>Kirtland Air Force Base</t>
+  </si>
+  <si>
+    <t>Pham, Michel Tuan</t>
+  </si>
+  <si>
+    <t>Columbia University</t>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>Pham, Q. T.</t>
+  </si>
+  <si>
+    <t>UNSW Sydney</t>
+  </si>
+  <si>
+    <t>Pham, Tuan D.</t>
+  </si>
+  <si>
+    <t>Prince Mohammad Bin Fahd University</t>
+  </si>
+  <si>
+    <t>sau</t>
+  </si>
+  <si>
+    <t>Phan, Anh Tuân</t>
+  </si>
+  <si>
+    <t>School of Physical and Mathematical Sciences</t>
+  </si>
+  <si>
+    <t>Developmental Biology</t>
+  </si>
+  <si>
+    <t>Phan, Huy P.</t>
+  </si>
+  <si>
+    <t>University of New England Australia</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Phan, K. Luan</t>
+  </si>
+  <si>
+    <t>The Ohio State University Wexner Medical Center</t>
+  </si>
+  <si>
+    <t>Psychiatry</t>
+  </si>
+  <si>
+    <t>Phan, Manh Huong</t>
+  </si>
+  <si>
+    <t>University of South Florida, Tampa</t>
+  </si>
+  <si>
+    <t>Phan, Tung</t>
+  </si>
+  <si>
+    <t>University of Pittsburgh Medical Center</t>
+  </si>
+  <si>
+    <t>Virology</t>
+  </si>
+  <si>
+    <t>Van Nguyen, Trung</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1022,6 +1292,26 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1336,16 +1626,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D5DA2C7-307D-A74A-AFB6-19F58130BC63}">
-  <dimension ref="A1:P109"/>
+  <dimension ref="A1:P149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="2" width="40.1640625" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="30"/>
+    <col min="7" max="7" width="10.83203125" style="30"/>
     <col min="11" max="11" width="21.33203125" customWidth="1"/>
     <col min="12" max="12" width="30.1640625" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="3"/>
@@ -1370,7 +1662,7 @@
       <c r="F1" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="31" t="s">
         <v>280</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1403,3213 +1695,3213 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>193</v>
+        <v>53</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D2" s="12">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="E2" s="14">
-        <v>3.0411165422415118</v>
+        <v>3.3022765310251669</v>
       </c>
       <c r="F2" s="13">
-        <v>254161</v>
-      </c>
-      <c r="G2" s="13">
-        <v>9</v>
+        <v>140030</v>
+      </c>
+      <c r="G2" s="32">
+        <v>23</v>
       </c>
       <c r="H2" s="14">
-        <v>7.3928571428571432</v>
+        <v>14.45</v>
       </c>
       <c r="I2" s="15">
-        <v>7.4999999999999997E-3</v>
+        <v>0.19589999999999999</v>
       </c>
       <c r="J2" s="16">
-        <v>290877</v>
+        <v>129110</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M2" s="12">
-        <v>5164</v>
+        <v>989</v>
       </c>
       <c r="N2" s="12">
-        <v>4316</v>
+        <v>1000</v>
       </c>
       <c r="O2" s="12">
-        <v>253359</v>
+        <v>71123</v>
       </c>
       <c r="P2" s="17">
         <f>N2/O2*100</f>
-        <v>1.7035116179018706</v>
+        <v>1.4060149318785766</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D3" s="12">
-        <v>138</v>
+        <v>86</v>
       </c>
       <c r="E3" s="14">
-        <v>3.3770406465018441</v>
+        <v>3.136200117789866</v>
       </c>
       <c r="F3" s="13">
-        <v>116468</v>
-      </c>
-      <c r="G3" s="13">
-        <v>22</v>
+        <v>206315</v>
+      </c>
+      <c r="G3" s="32">
+        <v>21</v>
       </c>
       <c r="H3" s="14">
-        <v>16.884313725490198</v>
+        <v>9.4999999999999982</v>
       </c>
       <c r="I3" s="15">
-        <v>2.1100000000000001E-2</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="J3" s="16">
-        <v>136093</v>
+        <v>221608</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M3" s="12">
-        <v>381</v>
+        <v>3808</v>
       </c>
       <c r="N3" s="12">
-        <v>348</v>
+        <v>3424</v>
       </c>
       <c r="O3" s="12">
-        <v>22656</v>
+        <v>253359</v>
       </c>
       <c r="P3" s="17">
         <f>N3/O3*100</f>
-        <v>1.5360169491525424</v>
+        <v>1.351442024952735</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>186</v>
+        <v>251</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>187</v>
+        <v>252</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D4" s="12">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="E4" s="14">
-        <v>3.2652850291579658</v>
+        <v>4.6581776984094194</v>
       </c>
       <c r="F4" s="13">
-        <v>153040</v>
-      </c>
-      <c r="G4" s="13">
-        <v>16</v>
+        <v>903</v>
+      </c>
+      <c r="G4" s="32">
+        <v>89</v>
       </c>
       <c r="H4" s="14">
-        <v>9.2261904761904763</v>
+        <v>37.405576943870919</v>
       </c>
       <c r="I4" s="15">
-        <v>2.7199999999999998E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="J4" s="16">
-        <v>167032</v>
+        <v>1039</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M4" s="12">
-        <v>2091</v>
+        <v>49</v>
       </c>
       <c r="N4" s="12">
-        <v>1869</v>
+        <v>39</v>
       </c>
       <c r="O4" s="12">
-        <v>229150</v>
+        <v>271773</v>
       </c>
       <c r="P4" s="17">
         <f>N4/O4*100</f>
-        <v>0.81562295439668342</v>
+        <v>1.4350211389652394E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>167</v>
+        <v>253</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>168</v>
+        <v>254</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D5" s="12">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="E5" s="14">
-        <v>3.0034331397529241</v>
+        <v>4.1137474341769709</v>
       </c>
       <c r="F5" s="13">
-        <v>275399</v>
-      </c>
-      <c r="G5" s="13">
-        <v>17</v>
+        <v>11605</v>
+      </c>
+      <c r="G5" s="32">
+        <v>46</v>
       </c>
       <c r="H5" s="14">
-        <v>8.5833333333333321</v>
+        <v>31.531746031746021</v>
       </c>
       <c r="I5" s="15">
-        <v>3.0800000000000001E-2</v>
+        <v>9.1700000000000004E-2</v>
       </c>
       <c r="J5" s="16">
-        <v>317813</v>
+        <v>12291</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>169</v>
+        <v>9</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="M5" s="12">
-        <v>530</v>
+        <v>337</v>
       </c>
       <c r="N5" s="12">
-        <v>464</v>
+        <v>296</v>
       </c>
       <c r="O5" s="12">
-        <v>23751</v>
+        <v>92738</v>
       </c>
       <c r="P5" s="17">
         <f>N5/O5*100</f>
-        <v>1.9536019536019535</v>
+        <v>0.31917876167266923</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>256</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>103</v>
+      </c>
       <c r="D6" s="12">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="E6" s="14">
-        <v>3.0167859145637612</v>
+        <v>2.9748002172480619</v>
       </c>
       <c r="F6" s="13">
-        <v>267679</v>
-      </c>
-      <c r="G6" s="13">
-        <v>15</v>
+        <v>292485</v>
+      </c>
+      <c r="G6" s="32">
+        <v>24</v>
       </c>
       <c r="H6" s="14">
-        <v>5.8500000000000014</v>
+        <v>11.167099567099569</v>
       </c>
       <c r="I6" s="15">
-        <v>3.1E-2</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="J6" s="16">
-        <v>307770</v>
+        <v>287080</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M6" s="12">
-        <v>4292</v>
+        <v>5087</v>
       </c>
       <c r="N6" s="12">
-        <v>3590</v>
+        <v>5032</v>
       </c>
       <c r="O6" s="12">
-        <v>229150</v>
+        <v>253359</v>
       </c>
       <c r="P6" s="17">
         <f>N6/O6*100</f>
-        <v>1.5666593934104296</v>
+        <v>1.9861145647085756</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>267</v>
+        <v>82</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>269</v>
+        <v>50</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D7" s="12">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E7" s="14">
-        <v>3.3658468143611779</v>
+        <v>2.9590353675270258</v>
       </c>
       <c r="F7" s="13">
-        <v>119748</v>
-      </c>
-      <c r="G7" s="13">
-        <v>16</v>
+        <v>302365</v>
+      </c>
+      <c r="G7" s="32">
+        <v>21</v>
       </c>
       <c r="H7" s="14">
-        <v>9.2000000000000011</v>
+        <v>10.94087301587302</v>
       </c>
       <c r="I7" s="15">
-        <v>3.7999999999999999E-2</v>
+        <v>0.27800000000000002</v>
       </c>
       <c r="J7" s="16">
-        <v>130438</v>
+        <v>225162</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M7" s="12">
-        <v>1033</v>
+        <v>2944</v>
       </c>
       <c r="N7" s="12">
-        <v>915</v>
+        <v>4150</v>
       </c>
       <c r="O7" s="12">
-        <v>102767</v>
+        <v>229150</v>
       </c>
       <c r="P7" s="17">
         <f>N7/O7*100</f>
-        <v>0.89036363813286368</v>
+        <v>1.8110408029674885</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>257</v>
+        <v>67</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>258</v>
+        <v>5</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D8" s="12">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E8" s="14">
-        <v>4.2368034883002226</v>
+        <v>3.11733858025111</v>
       </c>
       <c r="F8" s="13">
-        <v>7101</v>
-      </c>
-      <c r="G8" s="13">
-        <v>55</v>
+        <v>215126</v>
+      </c>
+      <c r="G8" s="32">
+        <v>14</v>
       </c>
       <c r="H8" s="14">
-        <v>32.35</v>
+        <v>11.91666666666667</v>
       </c>
       <c r="I8" s="15">
-        <v>4.0199999999999993E-2</v>
+        <v>0.43459999999999999</v>
       </c>
       <c r="J8" s="16">
-        <v>8365</v>
+        <v>147558</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M8" s="12">
-        <v>136</v>
+        <v>932</v>
       </c>
       <c r="N8" s="12">
-        <v>113</v>
+        <v>1503</v>
       </c>
       <c r="O8" s="12">
-        <v>135975</v>
+        <v>59044</v>
       </c>
       <c r="P8" s="17">
         <f>N8/O8*100</f>
-        <v>8.3103511674940247E-2</v>
+        <v>2.5455592439536616</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>227</v>
+        <v>24</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D9" s="12">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="E9" s="14">
-        <v>3.1018530612073349</v>
+        <v>3.6181845234130621</v>
       </c>
       <c r="F9" s="13">
-        <v>222578</v>
-      </c>
-      <c r="G9" s="13">
-        <v>18</v>
+        <v>60915</v>
+      </c>
+      <c r="G9" s="32">
+        <v>34</v>
       </c>
       <c r="H9" s="14">
-        <v>10.3922619047619</v>
+        <v>22.402380952380959</v>
       </c>
       <c r="I9" s="15">
-        <v>4.0599999999999997E-2</v>
+        <v>0.1825</v>
       </c>
       <c r="J9" s="16">
-        <v>244333</v>
+        <v>52643</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M9" s="12">
-        <v>2300</v>
+        <v>688</v>
       </c>
       <c r="N9" s="12">
-        <v>2211</v>
+        <v>777</v>
       </c>
       <c r="O9" s="12">
-        <v>113113</v>
+        <v>285331</v>
       </c>
       <c r="P9" s="17">
         <f>N9/O9*100</f>
-        <v>1.9546824856559368</v>
+        <v>0.27231531098969269</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D10" s="12">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="E10" s="14">
-        <v>3.308400903242124</v>
+        <v>2.9883946386572711</v>
       </c>
       <c r="F10" s="13">
-        <v>137971</v>
-      </c>
-      <c r="G10" s="13">
-        <v>26</v>
+        <v>284335</v>
+      </c>
+      <c r="G10" s="32">
+        <v>16</v>
       </c>
       <c r="H10" s="14">
-        <v>13.895238095238099</v>
+        <v>10.91666666666667</v>
       </c>
       <c r="I10" s="15">
-        <v>4.3999999999999997E-2</v>
+        <v>0.22220000000000001</v>
       </c>
       <c r="J10" s="16">
-        <v>147285</v>
+        <v>249930</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="L10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M10" s="12">
-        <v>1071</v>
+        <v>1901</v>
       </c>
       <c r="N10" s="12">
-        <v>912</v>
+        <v>2082</v>
       </c>
       <c r="O10" s="12">
-        <v>109724</v>
+        <v>96361</v>
       </c>
       <c r="P10" s="17">
         <f>N10/O10*100</f>
-        <v>0.83117640625569611</v>
+        <v>2.1606251491786095</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>170</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D11" s="12">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="E11" s="14">
-        <v>3.7606527431822201</v>
+        <v>3.8132852790137708</v>
       </c>
       <c r="F11" s="13">
-        <v>39646</v>
-      </c>
-      <c r="G11" s="13">
-        <v>82</v>
+        <v>33460</v>
+      </c>
+      <c r="G11" s="32">
+        <v>79</v>
       </c>
       <c r="H11" s="14">
-        <v>33.926562326562319</v>
+        <v>18.893936521850939</v>
       </c>
       <c r="I11" s="15">
-        <v>4.5900000000000003E-2</v>
+        <v>0.14169999999999999</v>
       </c>
       <c r="J11" s="16">
-        <v>44008</v>
+        <v>34353</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="M11" s="12">
-        <v>894</v>
+        <v>841</v>
       </c>
       <c r="N11" s="12">
-        <v>761</v>
+        <v>823</v>
       </c>
       <c r="O11" s="12">
-        <v>144918</v>
+        <v>165244</v>
       </c>
       <c r="P11" s="17">
         <f>N11/O11*100</f>
-        <v>0.52512455319560025</v>
+        <v>0.49805136646413789</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>220</v>
+        <v>1</v>
       </c>
       <c r="D12" s="12">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E12" s="14">
-        <v>2.5828818420574469</v>
+        <v>3.0531330913794492</v>
       </c>
       <c r="F12" s="13">
-        <v>643208</v>
-      </c>
-      <c r="G12" s="13">
-        <v>21</v>
+        <v>247608</v>
+      </c>
+      <c r="G12" s="32">
+        <v>16</v>
       </c>
       <c r="H12" s="14">
-        <v>9.3000000000000007</v>
+        <v>10.983333333333331</v>
       </c>
       <c r="I12" s="15">
-        <v>0.05</v>
+        <v>0.3992</v>
       </c>
       <c r="J12" s="16">
-        <v>695429</v>
+        <v>165150</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>221</v>
+        <v>26</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M12" s="12">
-        <v>477</v>
+        <v>2057</v>
       </c>
       <c r="N12" s="12">
-        <v>417</v>
+        <v>3260</v>
       </c>
       <c r="O12" s="12">
-        <v>30699</v>
+        <v>229150</v>
       </c>
       <c r="P12" s="17">
         <f>N12/O12*100</f>
-        <v>1.3583504348675852</v>
+        <v>1.4226489199214489</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>148</v>
+        <v>69</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D13" s="12">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="E13" s="14">
-        <v>3.0042264785119008</v>
+        <v>3.0776572947219041</v>
       </c>
       <c r="F13" s="13">
-        <v>274923</v>
-      </c>
-      <c r="G13" s="13">
-        <v>18</v>
+        <v>234801</v>
+      </c>
+      <c r="G13" s="32">
+        <v>20</v>
       </c>
       <c r="H13" s="14">
-        <v>8.0333333333333332</v>
+        <v>13.469877344877339</v>
       </c>
       <c r="I13" s="15">
-        <v>5.0299999999999997E-2</v>
+        <v>0.31590000000000001</v>
       </c>
       <c r="J13" s="16">
-        <v>309818</v>
+        <v>183963</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="M13" s="12">
-        <v>5542</v>
+        <v>368</v>
       </c>
       <c r="N13" s="12">
-        <v>4717</v>
+        <v>512</v>
       </c>
       <c r="O13" s="12">
-        <v>253359</v>
+        <v>30244</v>
       </c>
       <c r="P13" s="17">
         <f>N13/O13*100</f>
-        <v>1.8617850559877487</v>
+        <v>1.6928977648459198</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
-        <v>251</v>
+        <v>85</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D14" s="12">
-        <v>277</v>
+        <v>61</v>
       </c>
       <c r="E14" s="14">
-        <v>4.6581776984094194</v>
+        <v>2.8121724659035352</v>
       </c>
       <c r="F14" s="13">
-        <v>903</v>
-      </c>
-      <c r="G14" s="13">
-        <v>89</v>
+        <v>409502</v>
+      </c>
+      <c r="G14" s="32">
+        <v>12</v>
       </c>
       <c r="H14" s="14">
-        <v>37.405576943870919</v>
+        <v>9</v>
       </c>
       <c r="I14" s="15">
-        <v>5.5500000000000001E-2</v>
+        <v>0.25950000000000001</v>
       </c>
       <c r="J14" s="16">
-        <v>1039</v>
+        <v>349474</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>161</v>
+        <v>25</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="M14" s="12">
-        <v>49</v>
+        <v>5567</v>
       </c>
       <c r="N14" s="12">
-        <v>39</v>
+        <v>6490</v>
       </c>
       <c r="O14" s="12">
-        <v>271773</v>
+        <v>285331</v>
       </c>
       <c r="P14" s="17">
         <f>N14/O14*100</f>
-        <v>1.4350211389652394E-2</v>
+        <v>2.2745513105831474</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D15" s="12">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="E15" s="14">
-        <v>3.3167478615927068</v>
+        <v>3.3791004745678812</v>
       </c>
       <c r="F15" s="13">
-        <v>135179</v>
-      </c>
-      <c r="G15" s="13">
-        <v>25</v>
+        <v>115829</v>
+      </c>
+      <c r="G15" s="32">
+        <v>28</v>
       </c>
       <c r="H15" s="14">
-        <v>11.9</v>
+        <v>11.268552003551999</v>
       </c>
       <c r="I15" s="15">
-        <v>6.1100000000000002E-2</v>
+        <v>0.2112</v>
       </c>
       <c r="J15" s="16">
-        <v>153238</v>
+        <v>105717</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="M15" s="12">
-        <v>714</v>
+        <v>2045</v>
       </c>
       <c r="N15" s="12">
-        <v>612</v>
+        <v>1958</v>
       </c>
       <c r="O15" s="12">
-        <v>58351</v>
+        <v>135975</v>
       </c>
       <c r="P15" s="17">
         <f>N15/O15*100</f>
-        <v>1.0488252129355109</v>
+        <v>1.4399705828277256</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D16" s="12">
-        <v>310</v>
+        <v>92</v>
       </c>
       <c r="E16" s="14">
-        <v>3.9036443133492522</v>
+        <v>2.9792399022987772</v>
       </c>
       <c r="F16" s="13">
-        <v>24721</v>
-      </c>
-      <c r="G16" s="13">
-        <v>63</v>
+        <v>289869</v>
+      </c>
+      <c r="G16" s="32">
+        <v>16</v>
       </c>
       <c r="H16" s="14">
-        <v>26.65708487767311</v>
+        <v>11</v>
       </c>
       <c r="I16" s="15">
-        <v>6.2E-2</v>
+        <v>0.36809999999999998</v>
       </c>
       <c r="J16" s="16">
-        <v>28503</v>
+        <v>208720</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M16" s="12">
-        <v>213</v>
+        <v>1541</v>
       </c>
       <c r="N16" s="12">
-        <v>189</v>
+        <v>2079</v>
       </c>
       <c r="O16" s="12">
-        <v>113113</v>
+        <v>109724</v>
       </c>
       <c r="P16" s="17">
         <f>N16/O16*100</f>
-        <v>0.16708954762052106</v>
+        <v>1.8947541103131496</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>208</v>
+        <v>1</v>
       </c>
       <c r="D17" s="12">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E17" s="14">
-        <v>3.418607752950801</v>
+        <v>3.1744612331058519</v>
       </c>
       <c r="F17" s="13">
-        <v>104784</v>
-      </c>
-      <c r="G17" s="13">
-        <v>27</v>
+        <v>188914</v>
+      </c>
+      <c r="G17" s="32">
+        <v>19</v>
       </c>
       <c r="H17" s="14">
-        <v>11.74801587301587</v>
+        <v>13.333333333333339</v>
       </c>
       <c r="I17" s="15">
-        <v>6.2E-2</v>
+        <v>0.40979999999999989</v>
       </c>
       <c r="J17" s="16">
-        <v>108236</v>
+        <v>122691</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="L17" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M17" s="12">
-        <v>3065</v>
+        <v>2349</v>
       </c>
       <c r="N17" s="12">
-        <v>2803</v>
+        <v>3165</v>
       </c>
       <c r="O17" s="12">
-        <v>269833</v>
+        <v>135975</v>
       </c>
       <c r="P17" s="17">
         <f>N17/O17*100</f>
-        <v>1.038790659407856</v>
+        <v>2.3276337562051848</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D18" s="12">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="E18" s="14">
-        <v>3.5145325353407948</v>
+        <v>3.0288870975706268</v>
       </c>
       <c r="F18" s="13">
-        <v>81257</v>
-      </c>
-      <c r="G18" s="13">
-        <v>22</v>
+        <v>260841</v>
+      </c>
+      <c r="G18" s="32">
+        <v>21</v>
       </c>
       <c r="H18" s="14">
-        <v>13.75</v>
+        <v>11.053571428571431</v>
       </c>
       <c r="I18" s="15">
-        <v>6.6000000000000003E-2</v>
+        <v>0.31509999999999999</v>
       </c>
       <c r="J18" s="16">
-        <v>89069</v>
+        <v>208381</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M18" s="12">
-        <v>316</v>
+        <v>3050</v>
       </c>
       <c r="N18" s="12">
-        <v>303</v>
+        <v>3807</v>
       </c>
       <c r="O18" s="12">
-        <v>26063</v>
+        <v>285331</v>
       </c>
       <c r="P18" s="17">
         <f>N18/O18*100</f>
-        <v>1.1625676246019261</v>
+        <v>1.3342398828027799</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>93</v>
+        <v>58</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="D19" s="12">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="E19" s="14">
-        <v>3.3306344633819029</v>
+        <v>3.2906946764707929</v>
       </c>
       <c r="F19" s="13">
-        <v>130607</v>
-      </c>
-      <c r="G19" s="13">
-        <v>42</v>
+        <v>144032</v>
+      </c>
+      <c r="G19" s="32">
+        <v>20</v>
       </c>
       <c r="H19" s="14">
-        <v>14.74681456694265</v>
+        <v>8.177417027417027</v>
       </c>
       <c r="I19" s="15">
-        <v>8.0600000000000005E-2</v>
+        <v>0.16470000000000001</v>
       </c>
       <c r="J19" s="16">
-        <v>143221</v>
+        <v>136267</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="M19" s="12">
-        <v>3446</v>
+        <v>509</v>
       </c>
       <c r="N19" s="12">
-        <v>3198</v>
+        <v>542</v>
       </c>
       <c r="O19" s="12">
-        <v>165244</v>
+        <v>88725</v>
       </c>
       <c r="P19" s="17">
         <f>N19/O19*100</f>
-        <v>1.9353198905860423</v>
+        <v>0.61087630318399544</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
-        <v>64</v>
+        <v>226</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>65</v>
+        <v>227</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D20" s="12">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="E20" s="14">
-        <v>3.136200117789866</v>
+        <v>3.1018530612073349</v>
       </c>
       <c r="F20" s="13">
-        <v>206315</v>
-      </c>
-      <c r="G20" s="13">
-        <v>21</v>
+        <v>222578</v>
+      </c>
+      <c r="G20" s="32">
+        <v>18</v>
       </c>
       <c r="H20" s="14">
-        <v>9.4999999999999982</v>
+        <v>10.3922619047619</v>
       </c>
       <c r="I20" s="15">
-        <v>8.3699999999999997E-2</v>
+        <v>4.0599999999999997E-2</v>
       </c>
       <c r="J20" s="16">
-        <v>221608</v>
+        <v>244333</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>34</v>
+        <v>112</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M20" s="12">
-        <v>3808</v>
+        <v>2300</v>
       </c>
       <c r="N20" s="12">
-        <v>3424</v>
+        <v>2211</v>
       </c>
       <c r="O20" s="12">
-        <v>253359</v>
+        <v>113113</v>
       </c>
       <c r="P20" s="17">
         <f>N20/O20*100</f>
-        <v>1.351442024952735</v>
+        <v>1.9546824856559368</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D21" s="12">
-        <v>33</v>
+        <v>158</v>
       </c>
       <c r="E21" s="14">
-        <v>3.0972919750024901</v>
+        <v>3.1637005860210521</v>
       </c>
       <c r="F21" s="13">
-        <v>224933</v>
-      </c>
-      <c r="G21" s="13">
-        <v>15</v>
+        <v>193717</v>
+      </c>
+      <c r="G21" s="32">
+        <v>28</v>
       </c>
       <c r="H21" s="14">
-        <v>11.16666666666667</v>
+        <v>14.81785714285714</v>
       </c>
       <c r="I21" s="15">
-        <v>8.5199999999999998E-2</v>
+        <v>0.1268</v>
       </c>
       <c r="J21" s="16">
-        <v>245759</v>
+        <v>202628</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>86</v>
+        <v>26</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M21" s="12">
-        <v>1085</v>
+        <v>2627</v>
       </c>
       <c r="N21" s="12">
-        <v>885</v>
+        <v>2474</v>
       </c>
       <c r="O21" s="12">
-        <v>64512</v>
+        <v>229150</v>
       </c>
       <c r="P21" s="17">
         <f>N21/O21*100</f>
-        <v>1.3718377976190477</v>
+        <v>1.0796421557931486</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="D22" s="12">
-        <v>96</v>
+        <v>361</v>
       </c>
       <c r="E22" s="14">
-        <v>3.1332131022817742</v>
+        <v>3.7182314700588739</v>
       </c>
       <c r="F22" s="13">
-        <v>207718</v>
-      </c>
-      <c r="G22" s="13">
-        <v>25</v>
+        <v>45280</v>
+      </c>
+      <c r="G22" s="32">
+        <v>65</v>
       </c>
       <c r="H22" s="14">
-        <v>11.83333333333333</v>
+        <v>30.848809523809511</v>
       </c>
       <c r="I22" s="15">
-        <v>8.7400000000000005E-2</v>
+        <v>0.17349999999999999</v>
       </c>
       <c r="J22" s="16">
-        <v>219621</v>
+        <v>43511</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M22" s="12">
-        <v>2146</v>
+        <v>160</v>
       </c>
       <c r="N22" s="12">
-        <v>1974</v>
+        <v>159</v>
       </c>
       <c r="O22" s="12">
-        <v>183648</v>
+        <v>66189</v>
       </c>
       <c r="P22" s="17">
         <f>N22/O22*100</f>
-        <v>1.0748823836905386</v>
+        <v>0.24022118478901328</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="12">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E23" s="14">
-        <v>4.1137474341769709</v>
+        <v>3.5918361531786478</v>
       </c>
       <c r="F23" s="13">
-        <v>11605</v>
-      </c>
-      <c r="G23" s="13">
-        <v>46</v>
+        <v>65653</v>
+      </c>
+      <c r="G23" s="32">
+        <v>53</v>
       </c>
       <c r="H23" s="14">
-        <v>31.531746031746021</v>
+        <v>15.509027957974389</v>
       </c>
       <c r="I23" s="15">
-        <v>9.1700000000000004E-2</v>
+        <v>0.12870000000000001</v>
       </c>
       <c r="J23" s="16">
-        <v>12291</v>
+        <v>65768</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="M23" s="12">
-        <v>337</v>
+        <v>2673</v>
       </c>
       <c r="N23" s="12">
-        <v>296</v>
+        <v>2757</v>
       </c>
       <c r="O23" s="12">
-        <v>92738</v>
+        <v>271773</v>
       </c>
       <c r="P23" s="17">
         <f>N23/O23*100</f>
-        <v>0.31917876167266923</v>
+        <v>1.0144495590069655</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
-        <v>143</v>
+        <v>234</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>144</v>
+        <v>235</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D24" s="12">
-        <v>211</v>
+        <v>179</v>
       </c>
       <c r="E24" s="14">
-        <v>3.4425758107964359</v>
+        <v>3.3175225085260749</v>
       </c>
       <c r="F24" s="13">
-        <v>98418</v>
-      </c>
-      <c r="G24" s="13">
-        <v>58</v>
+        <v>134938</v>
+      </c>
+      <c r="G24" s="32">
+        <v>31</v>
       </c>
       <c r="H24" s="14">
-        <v>22.802204609353371</v>
+        <v>12.45341428039851</v>
       </c>
       <c r="I24" s="15">
-        <v>9.1799999999999993E-2</v>
+        <v>0.18759999999999999</v>
       </c>
       <c r="J24" s="16">
-        <v>109133</v>
+        <v>117966</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>145</v>
+        <v>4</v>
       </c>
       <c r="M24" s="12">
-        <v>2688</v>
+        <v>493</v>
       </c>
       <c r="N24" s="12">
-        <v>2470</v>
+        <v>558</v>
       </c>
       <c r="O24" s="12">
-        <v>165244</v>
+        <v>52403</v>
       </c>
       <c r="P24" s="17">
         <f>N24/O24*100</f>
-        <v>1.4947592650867809</v>
+        <v>1.0648245329465871</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>163</v>
+        <v>237</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D25" s="12">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="E25" s="14">
-        <v>3.5059699978256309</v>
+        <v>3.1332131022817742</v>
       </c>
       <c r="F25" s="13">
-        <v>83171</v>
-      </c>
-      <c r="G25" s="13">
-        <v>32</v>
+        <v>207718</v>
+      </c>
+      <c r="G25" s="32">
+        <v>25</v>
       </c>
       <c r="H25" s="14">
-        <v>19.392857142857139</v>
+        <v>11.83333333333333</v>
       </c>
       <c r="I25" s="15">
-        <v>9.3399999999999997E-2</v>
+        <v>8.7400000000000005E-2</v>
       </c>
       <c r="J25" s="16">
-        <v>90261</v>
+        <v>219621</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L25" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M25" s="12">
-        <v>1413</v>
+        <v>2146</v>
       </c>
       <c r="N25" s="12">
-        <v>1321</v>
+        <v>1974</v>
       </c>
       <c r="O25" s="12">
-        <v>253359</v>
+        <v>183648</v>
       </c>
       <c r="P25" s="17">
         <f>N25/O25*100</f>
-        <v>0.52139454292130938</v>
+        <v>1.0748823836905386</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>103</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C26" s="11"/>
       <c r="D26" s="12">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E26" s="14">
-        <v>3.6272796579565298</v>
+        <v>2.8272788572478849</v>
       </c>
       <c r="F26" s="13">
-        <v>59342</v>
-      </c>
-      <c r="G26" s="13">
-        <v>34</v>
+        <v>397180</v>
+      </c>
+      <c r="G26" s="32">
+        <v>19</v>
       </c>
       <c r="H26" s="14">
-        <v>13.962637362637359</v>
+        <v>9.96904761904762</v>
       </c>
       <c r="I26" s="15">
-        <v>9.3800000000000008E-2</v>
+        <v>0.1762</v>
       </c>
       <c r="J26" s="16">
-        <v>66608</v>
+        <v>342183</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M26" s="12">
-        <v>2314</v>
+        <v>3528</v>
       </c>
       <c r="N26" s="12">
-        <v>2142</v>
+        <v>4106</v>
       </c>
       <c r="O26" s="12">
-        <v>192021</v>
+        <v>183648</v>
       </c>
       <c r="P26" s="17">
         <f>N26/O26*100</f>
-        <v>1.1155029918602652</v>
+        <v>2.2357989196724168</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="10" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D27" s="12">
-        <v>193</v>
+        <v>553</v>
       </c>
       <c r="E27" s="14">
-        <v>3.6160601308481768</v>
+        <v>3.2362760450763068</v>
       </c>
       <c r="F27" s="13">
-        <v>61305</v>
-      </c>
-      <c r="G27" s="13">
-        <v>48</v>
+        <v>163854</v>
+      </c>
+      <c r="G27" s="32">
+        <v>64</v>
       </c>
       <c r="H27" s="14">
-        <v>19.88761562677163</v>
+        <v>28.92142857142856</v>
       </c>
       <c r="I27" s="15">
-        <v>9.5799999999999996E-2</v>
+        <v>0.1171</v>
       </c>
       <c r="J27" s="16">
-        <v>68197</v>
+        <v>161996</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>111</v>
+        <v>66</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M27" s="12">
-        <v>983</v>
+        <v>502</v>
       </c>
       <c r="N27" s="12">
-        <v>922</v>
+        <v>503</v>
       </c>
       <c r="O27" s="12">
-        <v>91513</v>
+        <v>52513</v>
       </c>
       <c r="P27" s="17">
         <f>N27/O27*100</f>
-        <v>1.0075071301345164</v>
+        <v>0.95785805419610381</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="10" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>181</v>
+        <v>242</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D28" s="12">
-        <v>121</v>
+        <v>282</v>
       </c>
       <c r="E28" s="14">
-        <v>2.8982978870960201</v>
+        <v>3.2623454788143378</v>
       </c>
       <c r="F28" s="13">
-        <v>343458</v>
-      </c>
-      <c r="G28" s="13">
-        <v>18</v>
+        <v>154114</v>
+      </c>
+      <c r="G28" s="32">
+        <v>27</v>
       </c>
       <c r="H28" s="14">
-        <v>11.483333333333331</v>
+        <v>16.905952380952382</v>
       </c>
       <c r="I28" s="15">
-        <v>9.6799999999999997E-2</v>
+        <v>0.2157</v>
       </c>
       <c r="J28" s="16">
-        <v>372363</v>
+        <v>138862</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>35</v>
+        <v>140</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M28" s="12">
-        <v>3904</v>
+        <v>419</v>
       </c>
       <c r="N28" s="12">
-        <v>3464</v>
+        <v>453</v>
       </c>
       <c r="O28" s="12">
-        <v>183648</v>
+        <v>105029</v>
       </c>
       <c r="P28" s="17">
         <f>N28/O28*100</f>
-        <v>1.886217110994947</v>
+        <v>0.43130944786677961</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="D29" s="12">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="E29" s="14">
-        <v>3.2025633476858602</v>
+        <v>3.2851009103988602</v>
       </c>
       <c r="F29" s="13">
-        <v>177184</v>
-      </c>
-      <c r="G29" s="13">
-        <v>20</v>
+        <v>145962</v>
+      </c>
+      <c r="G29" s="32">
+        <v>26</v>
       </c>
       <c r="H29" s="14">
-        <v>12.776190476190481</v>
+        <v>13.70833333333333</v>
       </c>
       <c r="I29" s="15">
-        <v>9.8000000000000004E-2</v>
+        <v>0.13930000000000001</v>
       </c>
       <c r="J29" s="16">
-        <v>189391</v>
+        <v>152063</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M29" s="12">
-        <v>1807</v>
+        <v>614</v>
       </c>
       <c r="N29" s="12">
-        <v>1663</v>
+        <v>545</v>
       </c>
       <c r="O29" s="12">
-        <v>183648</v>
+        <v>108280</v>
       </c>
       <c r="P29" s="17">
         <f>N29/O29*100</f>
-        <v>0.90553667886391354</v>
+        <v>0.5033247137052087</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="10" t="s">
-        <v>101</v>
+        <v>246</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>102</v>
+        <v>247</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D30" s="12">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="E30" s="14">
-        <v>3.2474815358515432</v>
+        <v>3.473052750186</v>
       </c>
       <c r="F30" s="13">
-        <v>159587</v>
-      </c>
-      <c r="G30" s="13">
-        <v>20</v>
+        <v>90792</v>
+      </c>
+      <c r="G30" s="32">
+        <v>41</v>
       </c>
       <c r="H30" s="14">
-        <v>8.9992424242424249</v>
+        <v>17.352380952380951</v>
       </c>
       <c r="I30" s="15">
-        <v>9.9100000000000008E-2</v>
+        <v>0.1333</v>
       </c>
       <c r="J30" s="16">
-        <v>167436</v>
+        <v>95594</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="M30" s="12">
-        <v>936</v>
+        <v>168</v>
       </c>
       <c r="N30" s="12">
-        <v>876</v>
+        <v>148</v>
       </c>
       <c r="O30" s="12">
-        <v>64212</v>
+        <v>47647</v>
       </c>
       <c r="P30" s="17">
         <f>N30/O30*100</f>
-        <v>1.3642309848626424</v>
+        <v>0.31061766742921909</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="10" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D31" s="12">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E31" s="14">
-        <v>3.1307102784693108</v>
+        <v>3.3390778249127782</v>
       </c>
       <c r="F31" s="13">
-        <v>208878</v>
-      </c>
-      <c r="G31" s="13">
-        <v>18</v>
+        <v>127831</v>
+      </c>
+      <c r="G31" s="32">
+        <v>22</v>
       </c>
       <c r="H31" s="14">
-        <v>13.366666666666671</v>
+        <v>16.538888888888891</v>
       </c>
       <c r="I31" s="15">
-        <v>0.1013</v>
+        <v>0.19270000000000001</v>
       </c>
       <c r="J31" s="16">
-        <v>219182</v>
+        <v>114414</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>224</v>
+        <v>169</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="M31" s="12">
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="N31" s="12">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="O31" s="12">
-        <v>7118</v>
+        <v>23751</v>
       </c>
       <c r="P31" s="17">
         <f>N31/O31*100</f>
-        <v>1.3767912334925541</v>
+        <v>0.74944212875247362</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="10" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D32" s="12">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E32" s="14">
-        <v>3.4338417778545902</v>
+        <v>3.142124573992604</v>
       </c>
       <c r="F32" s="13">
-        <v>100673</v>
-      </c>
-      <c r="G32" s="13">
-        <v>44</v>
+        <v>203553</v>
+      </c>
+      <c r="G32" s="32">
+        <v>31</v>
       </c>
       <c r="H32" s="14">
-        <v>21.74583333333333</v>
+        <v>14.68218322507488</v>
       </c>
       <c r="I32" s="15">
-        <v>0.1045</v>
+        <v>0.2732</v>
       </c>
       <c r="J32" s="16">
-        <v>109711</v>
+        <v>160419</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="M32" s="12">
-        <v>972</v>
+        <v>2297</v>
       </c>
       <c r="N32" s="12">
-        <v>883</v>
+        <v>2875</v>
       </c>
       <c r="O32" s="12">
-        <v>183648</v>
+        <v>285331</v>
       </c>
       <c r="P32" s="17">
         <f>N32/O32*100</f>
-        <v>0.48081111691932399</v>
+        <v>1.0076016976774342</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>272</v>
+        <v>92</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>271</v>
+        <v>93</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D33" s="12">
-        <v>100</v>
+        <v>178</v>
       </c>
       <c r="E33" s="14">
-        <v>3.273540804811502</v>
+        <v>3.3306344633819029</v>
       </c>
       <c r="F33" s="13">
-        <v>150089</v>
-      </c>
-      <c r="G33" s="13">
-        <v>33</v>
+        <v>130607</v>
+      </c>
+      <c r="G33" s="32">
+        <v>42</v>
       </c>
       <c r="H33" s="14">
-        <v>14.56666666666667</v>
+        <v>14.74681456694265</v>
       </c>
       <c r="I33" s="15">
-        <v>0.1051</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="J33" s="16">
-        <v>160153</v>
+        <v>143221</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="M33" s="12">
-        <v>1496</v>
+        <v>3446</v>
       </c>
       <c r="N33" s="12">
-        <v>1390</v>
+        <v>3198</v>
       </c>
       <c r="O33" s="12">
-        <v>183648</v>
+        <v>165244</v>
       </c>
       <c r="P33" s="17">
         <f>N33/O33*100</f>
-        <v>0.75688273218330715</v>
+        <v>1.9353198905860423</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="10" t="s">
-        <v>188</v>
+        <v>19</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>189</v>
+        <v>20</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D34" s="12">
-        <v>548</v>
+        <v>219</v>
       </c>
       <c r="E34" s="14">
-        <v>3.8062160605722402</v>
+        <v>3.6926990009887581</v>
       </c>
       <c r="F34" s="13">
-        <v>34245</v>
-      </c>
-      <c r="G34" s="13">
-        <v>46</v>
+        <v>48860</v>
+      </c>
+      <c r="G34" s="32">
+        <v>51</v>
       </c>
       <c r="H34" s="14">
-        <v>26.649999999999981</v>
+        <v>24.635714285714268</v>
       </c>
       <c r="I34" s="15">
-        <v>0.10680000000000001</v>
+        <v>0.29930000000000001</v>
       </c>
       <c r="J34" s="16">
-        <v>34720</v>
+        <v>33735</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="M34" s="12">
-        <v>565</v>
+        <v>79</v>
       </c>
       <c r="N34" s="12">
-        <v>581</v>
+        <v>105</v>
       </c>
       <c r="O34" s="12">
-        <v>253359</v>
+        <v>17766</v>
       </c>
       <c r="P34" s="17">
         <f>N34/O34*100</f>
-        <v>0.22931887164063641</v>
+        <v>0.59101654846335694</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D35" s="20">
-        <v>407</v>
-      </c>
-      <c r="E35" s="22">
-        <v>3.9511924981078952</v>
-      </c>
-      <c r="F35" s="21">
-        <v>21002</v>
-      </c>
-      <c r="G35" s="21">
-        <v>87</v>
-      </c>
-      <c r="H35" s="22">
-        <v>30.438702487939931</v>
-      </c>
-      <c r="I35" s="23">
-        <v>0.10970000000000001</v>
-      </c>
-      <c r="J35" s="24">
-        <v>18917</v>
-      </c>
-      <c r="K35" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="L35" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M35" s="20">
-        <v>498</v>
-      </c>
-      <c r="N35" s="20">
-        <v>545</v>
-      </c>
-      <c r="O35" s="20">
-        <v>81805</v>
+      <c r="A35" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" s="12">
+        <v>99</v>
+      </c>
+      <c r="E35" s="14">
+        <v>3.308400903242124</v>
+      </c>
+      <c r="F35" s="13">
+        <v>137971</v>
+      </c>
+      <c r="G35" s="32">
+        <v>26</v>
+      </c>
+      <c r="H35" s="14">
+        <v>13.895238095238099</v>
+      </c>
+      <c r="I35" s="15">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="J35" s="16">
+        <v>147285</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" s="12">
+        <v>1071</v>
+      </c>
+      <c r="N35" s="12">
+        <v>912</v>
+      </c>
+      <c r="O35" s="12">
+        <v>109724</v>
       </c>
       <c r="P35" s="17">
         <f>N35/O35*100</f>
-        <v>0.66621844630523808</v>
+        <v>0.83117640625569611</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="10" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D36" s="12">
-        <v>61</v>
+        <v>353</v>
       </c>
       <c r="E36" s="14">
-        <v>2.9620179425891822</v>
+        <v>3.4830605520879758</v>
       </c>
       <c r="F36" s="13">
-        <v>300451</v>
-      </c>
-      <c r="G36" s="13">
-        <v>17</v>
+        <v>88417</v>
+      </c>
+      <c r="G36" s="32">
+        <v>44</v>
       </c>
       <c r="H36" s="14">
-        <v>8.4773809523809511</v>
+        <v>16.582312404079719</v>
       </c>
       <c r="I36" s="15">
-        <v>0.1106</v>
+        <v>0.34520000000000001</v>
       </c>
       <c r="J36" s="16">
-        <v>285339</v>
+        <v>78517</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L36" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M36" s="12">
-        <v>5050</v>
+        <v>661</v>
       </c>
       <c r="N36" s="12">
-        <v>5171</v>
+        <v>766</v>
       </c>
       <c r="O36" s="12">
-        <v>253359</v>
+        <v>183648</v>
       </c>
       <c r="P36" s="17">
         <f>N36/O36*100</f>
-        <v>2.0409774272869723</v>
+        <v>0.41710228262763543</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>182</v>
+        <v>101</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D37" s="12">
-        <v>269</v>
+        <v>53</v>
       </c>
       <c r="E37" s="14">
-        <v>3.635228497128963</v>
+        <v>3.2474815358515432</v>
       </c>
       <c r="F37" s="13">
-        <v>57954</v>
-      </c>
-      <c r="G37" s="13">
-        <v>73</v>
+        <v>159587</v>
+      </c>
+      <c r="G37" s="32">
+        <v>20</v>
       </c>
       <c r="H37" s="14">
-        <v>27.020906870906849</v>
+        <v>8.9992424242424249</v>
       </c>
       <c r="I37" s="15">
-        <v>0.1108</v>
+        <v>9.9100000000000008E-2</v>
       </c>
       <c r="J37" s="16">
-        <v>60878</v>
+        <v>167436</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="M37" s="12">
-        <v>525</v>
+        <v>936</v>
       </c>
       <c r="N37" s="12">
-        <v>505</v>
+        <v>876</v>
       </c>
       <c r="O37" s="12">
-        <v>89177</v>
+        <v>64212</v>
       </c>
       <c r="P37" s="17">
         <f>N37/O37*100</f>
-        <v>0.56628951411238326</v>
+        <v>1.3642309848626424</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="10" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D38" s="12">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="E38" s="14">
-        <v>3.421050233340543</v>
+        <v>3.9558210597501842</v>
       </c>
       <c r="F38" s="13">
-        <v>104091</v>
-      </c>
-      <c r="G38" s="13">
-        <v>33</v>
+        <v>20652</v>
+      </c>
+      <c r="G38" s="32">
+        <v>38</v>
       </c>
       <c r="H38" s="14">
-        <v>12.15717893217893</v>
+        <v>26.249999999999989</v>
       </c>
       <c r="I38" s="15">
-        <v>0.113</v>
+        <v>0.1419</v>
       </c>
       <c r="J38" s="16">
-        <v>109801</v>
+        <v>20631</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M38" s="12">
-        <v>489</v>
+        <v>211</v>
       </c>
       <c r="N38" s="12">
-        <v>458</v>
+        <v>209</v>
       </c>
       <c r="O38" s="12">
-        <v>64425</v>
+        <v>89177</v>
       </c>
       <c r="P38" s="17">
         <f>N38/O38*100</f>
-        <v>0.71090415211486224</v>
+        <v>0.23436536326631305</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>203</v>
+        <v>108</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D39" s="12">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E39" s="14">
-        <v>3.3255256672922791</v>
+        <v>3.6272796579565298</v>
       </c>
       <c r="F39" s="13">
-        <v>132248</v>
-      </c>
-      <c r="G39" s="13">
-        <v>28</v>
+        <v>59342</v>
+      </c>
+      <c r="G39" s="32">
+        <v>34</v>
       </c>
       <c r="H39" s="14">
-        <v>9.4803276632798301</v>
+        <v>13.962637362637359</v>
       </c>
       <c r="I39" s="15">
-        <v>0.113</v>
+        <v>9.3800000000000008E-2</v>
       </c>
       <c r="J39" s="16">
-        <v>101310</v>
+        <v>66608</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="M39" s="12">
-        <v>872</v>
+        <v>2314</v>
       </c>
       <c r="N39" s="12">
-        <v>1205</v>
+        <v>2142</v>
       </c>
       <c r="O39" s="12">
-        <v>55837</v>
+        <v>192021</v>
       </c>
       <c r="P39" s="17">
         <f>N39/O39*100</f>
-        <v>2.1580672314056986</v>
+        <v>1.1155029918602652</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D40" s="12">
-        <v>553</v>
+        <v>193</v>
       </c>
       <c r="E40" s="14">
-        <v>3.2362760450763068</v>
+        <v>3.6160601308481768</v>
       </c>
       <c r="F40" s="13">
-        <v>163854</v>
-      </c>
-      <c r="G40" s="13">
-        <v>64</v>
+        <v>61305</v>
+      </c>
+      <c r="G40" s="32">
+        <v>48</v>
       </c>
       <c r="H40" s="14">
-        <v>28.92142857142856</v>
+        <v>19.88761562677163</v>
       </c>
       <c r="I40" s="15">
-        <v>0.1171</v>
+        <v>9.5799999999999996E-2</v>
       </c>
       <c r="J40" s="16">
-        <v>161996</v>
+        <v>68197</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>66</v>
+        <v>111</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M40" s="12">
-        <v>502</v>
+        <v>983</v>
       </c>
       <c r="N40" s="12">
-        <v>503</v>
+        <v>922</v>
       </c>
       <c r="O40" s="12">
-        <v>52513</v>
+        <v>91513</v>
       </c>
       <c r="P40" s="17">
         <f>N40/O40*100</f>
-        <v>0.95785805419610381</v>
+        <v>1.0075071301345164</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>159</v>
+        <v>113</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>160</v>
+        <v>114</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D41" s="12">
-        <v>229</v>
+        <v>138</v>
       </c>
       <c r="E41" s="14">
-        <v>3.4828949992087872</v>
+        <v>3.3770406465018441</v>
       </c>
       <c r="F41" s="13">
-        <v>88466</v>
-      </c>
-      <c r="G41" s="13">
-        <v>45</v>
+        <v>116468</v>
+      </c>
+      <c r="G41" s="32">
+        <v>22</v>
       </c>
       <c r="H41" s="14">
-        <v>14.91810354678001</v>
+        <v>16.884313725490198</v>
       </c>
       <c r="I41" s="15">
-        <v>0.1173</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="J41" s="16">
-        <v>94584</v>
+        <v>136093</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="L41" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M41" s="12">
-        <v>3627</v>
+        <v>381</v>
       </c>
       <c r="N41" s="12">
-        <v>3538</v>
+        <v>348</v>
       </c>
       <c r="O41" s="12">
-        <v>271773</v>
+        <v>22656</v>
       </c>
       <c r="P41" s="17">
         <f>N41/O41*100</f>
-        <v>1.3018217409382093</v>
+        <v>1.5360169491525424</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>225</v>
+        <v>116</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D42" s="12">
-        <v>283</v>
+        <v>114</v>
       </c>
       <c r="E42" s="14">
-        <v>3.566437573527971</v>
+        <v>2.9204102798566769</v>
       </c>
       <c r="F42" s="13">
-        <v>70512</v>
-      </c>
-      <c r="G42" s="13">
-        <v>33</v>
+        <v>328016</v>
+      </c>
+      <c r="G42" s="32">
+        <v>20</v>
       </c>
       <c r="H42" s="14">
-        <v>18.429700854700851</v>
+        <v>10.87619047619047</v>
       </c>
       <c r="I42" s="15">
-        <v>0.1188</v>
+        <v>0.33169999999999999</v>
       </c>
       <c r="J42" s="16">
-        <v>71141</v>
+        <v>239742</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M42" s="12">
-        <v>600</v>
+        <v>1800</v>
       </c>
       <c r="N42" s="12">
-        <v>605</v>
+        <v>2366</v>
       </c>
       <c r="O42" s="12">
-        <v>183648</v>
+        <v>109724</v>
       </c>
       <c r="P42" s="17">
         <f>N42/O42*100</f>
-        <v>0.32943457048266245</v>
+        <v>2.1563194925449309</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D43" s="12">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="E43" s="14">
-        <v>3.16341673144017</v>
+        <v>2.956544784620259</v>
       </c>
       <c r="F43" s="13">
-        <v>193827</v>
-      </c>
-      <c r="G43" s="13">
-        <v>24</v>
+        <v>303964</v>
+      </c>
+      <c r="G43" s="32">
+        <v>21</v>
       </c>
       <c r="H43" s="14">
-        <v>8.9566849816849796</v>
+        <v>13.16666666666667</v>
       </c>
       <c r="I43" s="15">
-        <v>0.12089999999999999</v>
+        <v>0.2046</v>
       </c>
       <c r="J43" s="16">
-        <v>173018</v>
+        <v>281515</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M43" s="12">
-        <v>1113</v>
+        <v>2836</v>
       </c>
       <c r="N43" s="12">
-        <v>1271</v>
+        <v>3024</v>
       </c>
       <c r="O43" s="12">
-        <v>77304</v>
+        <v>183648</v>
       </c>
       <c r="P43" s="17">
         <f>N43/O43*100</f>
-        <v>1.6441581289454621</v>
+        <v>1.6466283324621016</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="10" t="s">
-        <v>261</v>
+        <v>121</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>262</v>
+        <v>122</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D44" s="12">
-        <v>134</v>
+        <v>310</v>
       </c>
       <c r="E44" s="14">
-        <v>3.5671055264951059</v>
+        <v>3.3615550452501028</v>
       </c>
       <c r="F44" s="13">
-        <v>70359</v>
-      </c>
-      <c r="G44" s="13">
-        <v>31</v>
+        <v>121024</v>
+      </c>
+      <c r="G44" s="32">
+        <v>65</v>
       </c>
       <c r="H44" s="14">
-        <v>24.833333333333329</v>
+        <v>23.429865296081331</v>
       </c>
       <c r="I44" s="15">
-        <v>0.1216</v>
+        <v>0.1464</v>
       </c>
       <c r="J44" s="16">
-        <v>71804</v>
+        <v>124907</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>36</v>
+        <v>124</v>
       </c>
       <c r="M44" s="12">
-        <v>192</v>
+        <v>1748</v>
       </c>
       <c r="N44" s="12">
-        <v>194</v>
+        <v>1694</v>
       </c>
       <c r="O44" s="12">
-        <v>17974</v>
+        <v>134814</v>
       </c>
       <c r="P44" s="17">
         <f>N44/O44*100</f>
-        <v>1.0793368198508957</v>
+        <v>1.2565460560475914</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>76</v>
+        <v>125</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D45" s="12">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="E45" s="14">
-        <v>3.013892118083453</v>
+        <v>3.132135736348868</v>
       </c>
       <c r="F45" s="13">
-        <v>269314</v>
-      </c>
-      <c r="G45" s="13">
-        <v>24</v>
+        <v>208238</v>
+      </c>
+      <c r="G45" s="32">
+        <v>17</v>
       </c>
       <c r="H45" s="14">
-        <v>9.2333333333333325</v>
+        <v>11.70882352941176</v>
       </c>
       <c r="I45" s="15">
-        <v>0.1229</v>
+        <v>0.26939999999999997</v>
       </c>
       <c r="J45" s="16">
-        <v>267511</v>
+        <v>183796</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M45" s="12">
-        <v>4058</v>
+        <v>3084</v>
       </c>
       <c r="N45" s="12">
-        <v>3960</v>
+        <v>3457</v>
       </c>
       <c r="O45" s="12">
-        <v>285331</v>
+        <v>253359</v>
       </c>
       <c r="P45" s="17">
         <f>N45/O45*100</f>
-        <v>1.3878618166270051</v>
+        <v>1.3644670211044407</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>179</v>
+        <v>129</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="D46" s="12">
-        <v>154</v>
+        <v>343</v>
       </c>
       <c r="E46" s="14">
-        <v>3.2925928928373578</v>
+        <v>3.2412156814718558</v>
       </c>
       <c r="F46" s="13">
-        <v>143388</v>
-      </c>
-      <c r="G46" s="13">
-        <v>25</v>
+        <v>161989</v>
+      </c>
+      <c r="G46" s="32">
+        <v>28</v>
       </c>
       <c r="H46" s="14">
-        <v>13.517460317460319</v>
+        <v>15.832142857142861</v>
       </c>
       <c r="I46" s="15">
-        <v>0.1265</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="J46" s="16">
-        <v>144703</v>
+        <v>135859</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="M46" s="12">
-        <v>4203</v>
+        <v>608</v>
       </c>
       <c r="N46" s="12">
-        <v>3947</v>
+        <v>723</v>
       </c>
       <c r="O46" s="12">
-        <v>269833</v>
+        <v>64425</v>
       </c>
       <c r="P46" s="17">
         <f>N46/O46*100</f>
-        <v>1.4627565938932598</v>
+        <v>1.1222351571594877</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="D47" s="12">
-        <v>97</v>
+        <v>221</v>
       </c>
       <c r="E47" s="14">
-        <v>3.0551568855156011</v>
+        <v>3.3723561754968041</v>
       </c>
       <c r="F47" s="13">
-        <v>246559</v>
-      </c>
-      <c r="G47" s="13">
-        <v>32</v>
+        <v>117820</v>
+      </c>
+      <c r="G47" s="32">
+        <v>17</v>
       </c>
       <c r="H47" s="14">
-        <v>18.95</v>
+        <v>12.96851851851852</v>
       </c>
       <c r="I47" s="15">
-        <v>0.12670000000000001</v>
+        <v>0.20910000000000001</v>
       </c>
       <c r="J47" s="16">
-        <v>251009</v>
+        <v>105518</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M47" s="12">
-        <v>3760</v>
+        <v>1685</v>
       </c>
       <c r="N47" s="12">
-        <v>3570</v>
+        <v>1880</v>
       </c>
       <c r="O47" s="12">
-        <v>285331</v>
+        <v>253359</v>
       </c>
       <c r="P47" s="17">
         <f>N47/O47*100</f>
-        <v>1.2511784558985879</v>
+        <v>0.74203008379414193</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>229</v>
+        <v>134</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D48" s="12">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="E48" s="14">
-        <v>3.1637005860210521</v>
+        <v>3.0941539916282288</v>
       </c>
       <c r="F48" s="13">
-        <v>193717</v>
-      </c>
-      <c r="G48" s="13">
-        <v>28</v>
+        <v>226497</v>
+      </c>
+      <c r="G48" s="32">
+        <v>22</v>
       </c>
       <c r="H48" s="14">
-        <v>14.81785714285714</v>
+        <v>12.347619047619039</v>
       </c>
       <c r="I48" s="15">
-        <v>0.1268</v>
+        <v>0.3044</v>
       </c>
       <c r="J48" s="16">
-        <v>202628</v>
+        <v>197611</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="M48" s="12">
-        <v>2627</v>
+        <v>143</v>
       </c>
       <c r="N48" s="12">
-        <v>2474</v>
+        <v>138</v>
       </c>
       <c r="O48" s="12">
-        <v>229150</v>
+        <v>14362</v>
       </c>
       <c r="P48" s="17">
         <f>N48/O48*100</f>
-        <v>1.0796421557931486</v>
+        <v>0.96086895975490882</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>232</v>
+        <v>136</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>233</v>
+        <v>137</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D49" s="12">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="E49" s="14">
-        <v>3.5918361531786478</v>
+        <v>3.421050233340543</v>
       </c>
       <c r="F49" s="13">
-        <v>65653</v>
-      </c>
-      <c r="G49" s="13">
-        <v>53</v>
+        <v>104091</v>
+      </c>
+      <c r="G49" s="32">
+        <v>33</v>
       </c>
       <c r="H49" s="14">
-        <v>15.509027957974389</v>
+        <v>12.15717893217893</v>
       </c>
       <c r="I49" s="15">
-        <v>0.12870000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="J49" s="16">
-        <v>65768</v>
+        <v>109801</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M49" s="12">
-        <v>2673</v>
+        <v>489</v>
       </c>
       <c r="N49" s="12">
-        <v>2757</v>
+        <v>458</v>
       </c>
       <c r="O49" s="12">
-        <v>271773</v>
+        <v>64425</v>
       </c>
       <c r="P49" s="17">
         <f>N49/O49*100</f>
-        <v>1.0144495590069655</v>
+        <v>0.71090415211486224</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="10" t="s">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>256</v>
+        <v>139</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D50" s="12">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="E50" s="14">
-        <v>2.9748002172480619</v>
+        <v>3.103047016506824</v>
       </c>
       <c r="F50" s="13">
-        <v>292485</v>
-      </c>
-      <c r="G50" s="13">
-        <v>24</v>
+        <v>222003</v>
+      </c>
+      <c r="G50" s="32">
+        <v>19</v>
       </c>
       <c r="H50" s="14">
-        <v>11.167099567099569</v>
+        <v>11.11392496392496</v>
       </c>
       <c r="I50" s="15">
-        <v>0.12909999999999999</v>
+        <v>0.14050000000000001</v>
       </c>
       <c r="J50" s="16">
-        <v>287080</v>
+        <v>226432</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>34</v>
+        <v>140</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M50" s="12">
-        <v>5087</v>
+        <v>745</v>
       </c>
       <c r="N50" s="12">
-        <v>5032</v>
+        <v>716</v>
       </c>
       <c r="O50" s="12">
-        <v>253359</v>
+        <v>105029</v>
       </c>
       <c r="P50" s="17">
         <f>N50/O50*100</f>
-        <v>1.9861145647085756</v>
+        <v>0.68171647830599169</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="10" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D51" s="12">
-        <v>64</v>
+        <v>133</v>
       </c>
       <c r="E51" s="14">
-        <v>3.208477929990952</v>
+        <v>2.6370630482017781</v>
       </c>
       <c r="F51" s="13">
-        <v>174839</v>
-      </c>
-      <c r="G51" s="13">
-        <v>22</v>
+        <v>579666</v>
+      </c>
+      <c r="G51" s="32">
+        <v>14</v>
       </c>
       <c r="H51" s="14">
-        <v>12.3595238095238</v>
+        <v>7.9083333333333341</v>
       </c>
       <c r="I51" s="15">
-        <v>0.13200000000000001</v>
+        <v>0.35920000000000002</v>
       </c>
       <c r="J51" s="16">
-        <v>177984</v>
+        <v>396744</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="L51" s="10" t="s">
         <v>28</v>
       </c>
       <c r="M51" s="12">
-        <v>1556</v>
+        <v>2079</v>
       </c>
       <c r="N51" s="12">
-        <v>1582</v>
+        <v>2971</v>
       </c>
       <c r="O51" s="12">
-        <v>89177</v>
+        <v>108280</v>
       </c>
       <c r="P51" s="17">
         <f>N51/O51*100</f>
-        <v>1.7740000224273074</v>
+        <v>2.7438123383819728</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="10" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D52" s="12">
-        <v>87</v>
+        <v>211</v>
       </c>
       <c r="E52" s="14">
-        <v>2.9131039114112709</v>
+        <v>3.4425758107964359</v>
       </c>
       <c r="F52" s="13">
-        <v>333061</v>
-      </c>
-      <c r="G52" s="13">
-        <v>20</v>
+        <v>98418</v>
+      </c>
+      <c r="G52" s="32">
+        <v>58</v>
       </c>
       <c r="H52" s="14">
-        <v>9.7666666666666675</v>
+        <v>22.802204609353371</v>
       </c>
       <c r="I52" s="15">
-        <v>0.13300000000000001</v>
+        <v>9.1799999999999993E-2</v>
       </c>
       <c r="J52" s="16">
-        <v>333489</v>
+        <v>109133</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="M52" s="12">
-        <v>1201</v>
+        <v>2688</v>
       </c>
       <c r="N52" s="12">
-        <v>1167</v>
+        <v>2470</v>
       </c>
       <c r="O52" s="12">
-        <v>105029</v>
+        <v>165244</v>
       </c>
       <c r="P52" s="17">
         <f>N52/O52*100</f>
-        <v>1.1111216901998495</v>
+        <v>1.4947592650867809</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="10" t="s">
-        <v>246</v>
+        <v>146</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>247</v>
+        <v>147</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D53" s="12">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="E53" s="14">
-        <v>3.473052750186</v>
+        <v>2.9131039114112709</v>
       </c>
       <c r="F53" s="13">
-        <v>90792</v>
-      </c>
-      <c r="G53" s="13">
-        <v>41</v>
+        <v>333061</v>
+      </c>
+      <c r="G53" s="32">
+        <v>20</v>
       </c>
       <c r="H53" s="14">
-        <v>17.352380952380951</v>
+        <v>9.7666666666666675</v>
       </c>
       <c r="I53" s="15">
-        <v>0.1333</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="J53" s="16">
-        <v>95594</v>
+        <v>333489</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>37</v>
+        <v>140</v>
       </c>
       <c r="L53" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M53" s="12">
-        <v>168</v>
+        <v>1201</v>
       </c>
       <c r="N53" s="12">
-        <v>148</v>
+        <v>1167</v>
       </c>
       <c r="O53" s="12">
-        <v>47647</v>
+        <v>105029</v>
       </c>
       <c r="P53" s="17">
         <f>N53/O53*100</f>
-        <v>0.31061766742921909</v>
+        <v>1.1111216901998495</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="10" t="s">
-        <v>211</v>
+        <v>8</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>213</v>
+        <v>1</v>
       </c>
       <c r="D54" s="12">
-        <v>72</v>
+        <v>675</v>
       </c>
       <c r="E54" s="14">
-        <v>2.9323034437856772</v>
+        <v>3.9427421625705699</v>
       </c>
       <c r="F54" s="13">
-        <v>319946</v>
-      </c>
-      <c r="G54" s="13">
-        <v>22</v>
+        <v>21640</v>
+      </c>
+      <c r="G54" s="32">
+        <v>47</v>
       </c>
       <c r="H54" s="14">
-        <v>9.6083333333333325</v>
+        <v>29.19160561660561</v>
       </c>
       <c r="I54" s="15">
-        <v>0.13700000000000001</v>
+        <v>0.2177</v>
       </c>
       <c r="J54" s="16">
-        <v>320780</v>
+        <v>18278</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M54" s="12">
-        <v>4518</v>
+        <v>487</v>
       </c>
       <c r="N54" s="12">
-        <v>4462</v>
+        <v>528</v>
       </c>
       <c r="O54" s="12">
-        <v>229150</v>
+        <v>92738</v>
       </c>
       <c r="P54" s="17">
         <f>N54/O54*100</f>
-        <v>1.9471961597207068</v>
+        <v>0.56934589919989653</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D55" s="12">
-        <v>342</v>
+        <v>46</v>
       </c>
       <c r="E55" s="14">
-        <v>3.4846919974436701</v>
+        <v>3.0042264785119008</v>
       </c>
       <c r="F55" s="13">
-        <v>88035</v>
-      </c>
-      <c r="G55" s="13">
-        <v>53</v>
+        <v>274923</v>
+      </c>
+      <c r="G55" s="32">
+        <v>18</v>
       </c>
       <c r="H55" s="14">
-        <v>15.91286570974991</v>
+        <v>8.0333333333333332</v>
       </c>
       <c r="I55" s="15">
-        <v>0.1386</v>
+        <v>5.0299999999999997E-2</v>
       </c>
       <c r="J55" s="16">
-        <v>90336</v>
+        <v>309818</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>166</v>
+        <v>34</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="M55" s="12">
-        <v>622</v>
+        <v>5542</v>
       </c>
       <c r="N55" s="12">
-        <v>617</v>
+        <v>4717</v>
       </c>
       <c r="O55" s="12">
-        <v>65331</v>
+        <v>253359</v>
       </c>
       <c r="P55" s="17">
         <f>N55/O55*100</f>
-        <v>0.94442148444077079</v>
+        <v>1.8617850559877487</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="D56" s="12">
-        <v>213</v>
+        <v>557</v>
       </c>
       <c r="E56" s="14">
-        <v>3.078523581846218</v>
+        <v>4.1770516350382394</v>
       </c>
       <c r="F56" s="13">
-        <v>234331</v>
-      </c>
-      <c r="G56" s="13">
-        <v>27</v>
+        <v>9012</v>
+      </c>
+      <c r="G56" s="32">
+        <v>59</v>
       </c>
       <c r="H56" s="14">
-        <v>12.905591630591619</v>
+        <v>32.681457431457417</v>
       </c>
       <c r="I56" s="15">
-        <v>0.13900000000000001</v>
+        <v>0.16919999999999999</v>
       </c>
       <c r="J56" s="16">
-        <v>248700</v>
+        <v>8318</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M56" s="12">
-        <v>2444</v>
+        <v>103</v>
       </c>
       <c r="N56" s="12">
-        <v>2264</v>
+        <v>109</v>
       </c>
       <c r="O56" s="12">
-        <v>183648</v>
+        <v>89177</v>
       </c>
       <c r="P56" s="17">
         <f>N56/O56*100</f>
-        <v>1.232793169541732</v>
+        <v>0.12222882581831639</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>244</v>
+        <v>153</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>245</v>
+        <v>127</v>
       </c>
       <c r="D57" s="12">
-        <v>168</v>
+        <v>346</v>
       </c>
       <c r="E57" s="14">
-        <v>3.2851009103988602</v>
+        <v>3.0107718440990601</v>
       </c>
       <c r="F57" s="13">
-        <v>145962</v>
-      </c>
-      <c r="G57" s="13">
-        <v>26</v>
+        <v>271124</v>
+      </c>
+      <c r="G57" s="32">
+        <v>16</v>
       </c>
       <c r="H57" s="14">
-        <v>13.70833333333333</v>
+        <v>11.15952380952381</v>
       </c>
       <c r="I57" s="15">
-        <v>0.13930000000000001</v>
+        <v>0.48330000000000001</v>
       </c>
       <c r="J57" s="16">
-        <v>152063</v>
+        <v>135691</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>87</v>
+        <v>34</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M57" s="12">
-        <v>614</v>
+        <v>2206</v>
       </c>
       <c r="N57" s="12">
-        <v>545</v>
+        <v>4649</v>
       </c>
       <c r="O57" s="12">
-        <v>108280</v>
+        <v>253359</v>
       </c>
       <c r="P57" s="17">
         <f>N57/O57*100</f>
-        <v>0.5033247137052087</v>
+        <v>1.8349456699781732</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D58" s="12">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="E58" s="14">
-        <v>3.103047016506824</v>
+        <v>3.0616465284443559</v>
       </c>
       <c r="F58" s="13">
-        <v>222003</v>
-      </c>
-      <c r="G58" s="13">
-        <v>19</v>
+        <v>243171</v>
+      </c>
+      <c r="G58" s="32">
+        <v>16</v>
       </c>
       <c r="H58" s="14">
-        <v>11.11392496392496</v>
+        <v>10.209523809523811</v>
       </c>
       <c r="I58" s="15">
-        <v>0.14050000000000001</v>
+        <v>0.46689999999999998</v>
       </c>
       <c r="J58" s="16">
-        <v>226432</v>
+        <v>143076</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="L58" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M58" s="12">
-        <v>745</v>
+        <v>236</v>
       </c>
       <c r="N58" s="12">
-        <v>716</v>
+        <v>471</v>
       </c>
       <c r="O58" s="12">
-        <v>105029</v>
+        <v>51361</v>
       </c>
       <c r="P58" s="17">
         <f>N58/O58*100</f>
-        <v>0.68171647830599169</v>
+        <v>0.9170382196608321</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D59" s="12">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E59" s="14">
-        <v>3.8132852790137708</v>
+        <v>3.9036443133492522</v>
       </c>
       <c r="F59" s="13">
-        <v>33460</v>
-      </c>
-      <c r="G59" s="13">
-        <v>79</v>
+        <v>24721</v>
+      </c>
+      <c r="G59" s="32">
+        <v>63</v>
       </c>
       <c r="H59" s="14">
-        <v>18.893936521850939</v>
+        <v>26.65708487767311</v>
       </c>
       <c r="I59" s="15">
-        <v>0.14169999999999999</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J59" s="16">
-        <v>34353</v>
+        <v>28503</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="L59" s="10" t="s">
         <v>18</v>
       </c>
       <c r="M59" s="12">
-        <v>841</v>
+        <v>213</v>
       </c>
       <c r="N59" s="12">
-        <v>823</v>
+        <v>189</v>
       </c>
       <c r="O59" s="12">
-        <v>165244</v>
+        <v>113113</v>
       </c>
       <c r="P59" s="17">
         <f>N59/O59*100</f>
-        <v>0.49805136646413789</v>
+        <v>0.16708954762052106</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D60" s="12">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="E60" s="14">
-        <v>3.9558210597501842</v>
+        <v>3.4828949992087872</v>
       </c>
       <c r="F60" s="13">
-        <v>20652</v>
-      </c>
-      <c r="G60" s="13">
-        <v>38</v>
+        <v>88466</v>
+      </c>
+      <c r="G60" s="32">
+        <v>45</v>
       </c>
       <c r="H60" s="14">
-        <v>26.249999999999989</v>
+        <v>14.91810354678001</v>
       </c>
       <c r="I60" s="15">
-        <v>0.1419</v>
+        <v>0.1173</v>
       </c>
       <c r="J60" s="16">
-        <v>20631</v>
+        <v>94584</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>83</v>
+        <v>161</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="M60" s="12">
-        <v>211</v>
+        <v>3627</v>
       </c>
       <c r="N60" s="12">
-        <v>209</v>
+        <v>3538</v>
       </c>
       <c r="O60" s="12">
-        <v>89177</v>
+        <v>271773</v>
       </c>
       <c r="P60" s="17">
         <f>N60/O60*100</f>
-        <v>0.23436536326631305</v>
+        <v>1.3018217409382093</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>214</v>
+        <v>162</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D61" s="12">
-        <v>234</v>
+        <v>74</v>
       </c>
       <c r="E61" s="14">
-        <v>3.4454340294484469</v>
+        <v>3.5059699978256309</v>
       </c>
       <c r="F61" s="13">
-        <v>97734</v>
-      </c>
-      <c r="G61" s="13">
-        <v>55</v>
+        <v>83171</v>
+      </c>
+      <c r="G61" s="32">
+        <v>32</v>
       </c>
       <c r="H61" s="14">
-        <v>21.381499932815711</v>
+        <v>19.392857142857139</v>
       </c>
       <c r="I61" s="15">
-        <v>0.1447</v>
+        <v>9.3399999999999997E-2</v>
       </c>
       <c r="J61" s="16">
-        <v>96524</v>
+        <v>90261</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>123</v>
+        <v>34</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="M61" s="12">
-        <v>1300</v>
+        <v>1413</v>
       </c>
       <c r="N61" s="12">
-        <v>1332</v>
+        <v>1321</v>
       </c>
       <c r="O61" s="12">
-        <v>134814</v>
+        <v>253359</v>
       </c>
       <c r="P61" s="17">
         <f>N61/O61*100</f>
-        <v>0.98802794961947571</v>
+        <v>0.52139454292130938</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="10" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>122</v>
+        <v>165</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D62" s="12">
-        <v>310</v>
+        <v>342</v>
       </c>
       <c r="E62" s="14">
-        <v>3.3615550452501028</v>
+        <v>3.4846919974436701</v>
       </c>
       <c r="F62" s="13">
-        <v>121024</v>
-      </c>
-      <c r="G62" s="13">
-        <v>65</v>
+        <v>88035</v>
+      </c>
+      <c r="G62" s="32">
+        <v>53</v>
       </c>
       <c r="H62" s="14">
-        <v>23.429865296081331</v>
+        <v>15.91286570974991</v>
       </c>
       <c r="I62" s="15">
-        <v>0.1464</v>
+        <v>0.1386</v>
       </c>
       <c r="J62" s="16">
-        <v>124907</v>
+        <v>90336</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="M62" s="12">
-        <v>1748</v>
+        <v>622</v>
       </c>
       <c r="N62" s="12">
-        <v>1694</v>
+        <v>617</v>
       </c>
       <c r="O62" s="12">
-        <v>134814</v>
+        <v>65331</v>
       </c>
       <c r="P62" s="17">
         <f>N62/O62*100</f>
-        <v>1.2565460560475914</v>
+        <v>0.94442148444077079</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="10" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D63" s="12">
-        <v>146</v>
+        <v>27</v>
       </c>
       <c r="E63" s="14">
-        <v>3.231540976373763</v>
+        <v>3.0034331397529241</v>
       </c>
       <c r="F63" s="13">
-        <v>165698</v>
-      </c>
-      <c r="G63" s="13">
-        <v>30</v>
+        <v>275399</v>
+      </c>
+      <c r="G63" s="32">
+        <v>17</v>
       </c>
       <c r="H63" s="14">
-        <v>13.07348484848484</v>
+        <v>8.5833333333333321</v>
       </c>
       <c r="I63" s="15">
-        <v>0.15129999999999999</v>
+        <v>3.0800000000000001E-2</v>
       </c>
       <c r="J63" s="16">
-        <v>163962</v>
+        <v>317813</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="M63" s="12">
-        <v>1600</v>
+        <v>530</v>
       </c>
       <c r="N63" s="12">
-        <v>1549</v>
+        <v>464</v>
       </c>
       <c r="O63" s="12">
-        <v>100162</v>
+        <v>23751</v>
       </c>
       <c r="P63" s="17">
         <f>N63/O63*100</f>
-        <v>1.5464946786206346</v>
+        <v>1.9536019536019535</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>49</v>
+        <v>170</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D64" s="12">
-        <v>142</v>
+        <v>293</v>
       </c>
       <c r="E64" s="14">
-        <v>3.304958205921654</v>
+        <v>3.7606527431822201</v>
       </c>
       <c r="F64" s="13">
-        <v>139167</v>
-      </c>
-      <c r="G64" s="13">
-        <v>36</v>
+        <v>39646</v>
+      </c>
+      <c r="G64" s="32">
+        <v>82</v>
       </c>
       <c r="H64" s="14">
-        <v>15.85638528138527</v>
+        <v>33.926562326562319</v>
       </c>
       <c r="I64" s="15">
-        <v>0.1532</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="J64" s="16">
-        <v>136342</v>
+        <v>44008</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M64" s="12">
-        <v>3943</v>
+        <v>894</v>
       </c>
       <c r="N64" s="12">
-        <v>3817</v>
+        <v>761</v>
       </c>
       <c r="O64" s="12">
-        <v>269833</v>
+        <v>144918</v>
       </c>
       <c r="P64" s="17">
         <f>N64/O64*100</f>
-        <v>1.4145786467926458</v>
+        <v>0.52512455319560025</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -4631,7 +4923,7 @@
       <c r="F65" s="13">
         <v>111813</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="32">
         <v>25</v>
       </c>
       <c r="H65" s="14">
@@ -4665,185 +4957,187 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="10" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>1</v>
+        <v>97</v>
       </c>
       <c r="D66" s="12">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="E66" s="14">
-        <v>3.2906946764707929</v>
+        <v>3.208477929990952</v>
       </c>
       <c r="F66" s="13">
-        <v>144032</v>
-      </c>
-      <c r="G66" s="13">
-        <v>20</v>
+        <v>174839</v>
+      </c>
+      <c r="G66" s="32">
+        <v>22</v>
       </c>
       <c r="H66" s="14">
-        <v>8.177417027417027</v>
+        <v>12.3595238095238</v>
       </c>
       <c r="I66" s="15">
-        <v>0.16470000000000001</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="J66" s="16">
-        <v>136267</v>
+        <v>177984</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="L66" s="10" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="M66" s="12">
-        <v>509</v>
+        <v>1556</v>
       </c>
       <c r="N66" s="12">
-        <v>542</v>
+        <v>1582</v>
       </c>
       <c r="O66" s="12">
-        <v>88725</v>
+        <v>89177</v>
       </c>
       <c r="P66" s="17">
         <f>N66/O66*100</f>
-        <v>0.61087630318399544</v>
+        <v>1.7740000224273074</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="10" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D67" s="12">
-        <v>557</v>
+        <v>122</v>
       </c>
       <c r="E67" s="14">
-        <v>4.1770516350382394</v>
+        <v>3.2892608139481001</v>
       </c>
       <c r="F67" s="13">
-        <v>9012</v>
-      </c>
-      <c r="G67" s="13">
-        <v>59</v>
+        <v>144520</v>
+      </c>
+      <c r="G67" s="32">
+        <v>31</v>
       </c>
       <c r="H67" s="14">
-        <v>32.681457431457417</v>
+        <v>13.957478632478621</v>
       </c>
       <c r="I67" s="15">
-        <v>0.16919999999999999</v>
+        <v>0.1898</v>
       </c>
       <c r="J67" s="16">
-        <v>8318</v>
+        <v>134639</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="M67" s="12">
-        <v>103</v>
+        <v>606</v>
       </c>
       <c r="N67" s="12">
-        <v>109</v>
+        <v>630</v>
       </c>
       <c r="O67" s="12">
-        <v>89177</v>
+        <v>64425</v>
       </c>
       <c r="P67" s="17">
         <f>N67/O67*100</f>
-        <v>0.12222882581831639</v>
+        <v>0.97788125727590225</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="10" t="s">
-        <v>230</v>
+        <v>178</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>231</v>
+        <v>179</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="D68" s="12">
-        <v>361</v>
+        <v>154</v>
       </c>
       <c r="E68" s="14">
-        <v>3.7182314700588739</v>
+        <v>3.2925928928373578</v>
       </c>
       <c r="F68" s="13">
-        <v>45280</v>
-      </c>
-      <c r="G68" s="13">
-        <v>65</v>
+        <v>143388</v>
+      </c>
+      <c r="G68" s="32">
+        <v>25</v>
       </c>
       <c r="H68" s="14">
-        <v>30.848809523809511</v>
+        <v>13.517460317460319</v>
       </c>
       <c r="I68" s="15">
-        <v>0.17349999999999999</v>
+        <v>0.1265</v>
       </c>
       <c r="J68" s="16">
-        <v>43511</v>
+        <v>144703</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="M68" s="12">
-        <v>160</v>
+        <v>4203</v>
       </c>
       <c r="N68" s="12">
-        <v>159</v>
+        <v>3947</v>
       </c>
       <c r="O68" s="12">
-        <v>66189</v>
+        <v>269833</v>
       </c>
       <c r="P68" s="17">
         <f>N68/O68*100</f>
-        <v>0.24022118478901328</v>
+        <v>1.4627565938932598</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>238</v>
+        <v>180</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="C69" s="11"/>
+        <v>181</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="D69" s="12">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="E69" s="14">
-        <v>2.8272788572478849</v>
+        <v>2.8982978870960201</v>
       </c>
       <c r="F69" s="13">
-        <v>397180</v>
-      </c>
-      <c r="G69" s="13">
-        <v>19</v>
+        <v>343458</v>
+      </c>
+      <c r="G69" s="32">
+        <v>18</v>
       </c>
       <c r="H69" s="14">
-        <v>9.96904761904762</v>
+        <v>11.483333333333331</v>
       </c>
       <c r="I69" s="15">
-        <v>0.1762</v>
+        <v>9.6799999999999997E-2</v>
       </c>
       <c r="J69" s="16">
-        <v>342183</v>
+        <v>372363</v>
       </c>
       <c r="K69" s="10" t="s">
         <v>35</v>
@@ -4852,374 +5146,374 @@
         <v>36</v>
       </c>
       <c r="M69" s="12">
-        <v>3528</v>
+        <v>3904</v>
       </c>
       <c r="N69" s="12">
-        <v>4106</v>
+        <v>3464</v>
       </c>
       <c r="O69" s="12">
         <v>183648</v>
       </c>
       <c r="P69" s="17">
         <f>N69/O69*100</f>
-        <v>2.2357989196724168</v>
+        <v>1.886217110994947</v>
       </c>
     </row>
     <row r="70" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>129</v>
+        <v>183</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="D70" s="12">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="E70" s="14">
-        <v>3.2412156814718558</v>
+        <v>3.635228497128963</v>
       </c>
       <c r="F70" s="13">
-        <v>161989</v>
-      </c>
-      <c r="G70" s="13">
+        <v>57954</v>
+      </c>
+      <c r="G70" s="32">
+        <v>73</v>
+      </c>
+      <c r="H70" s="14">
+        <v>27.020906870906849</v>
+      </c>
+      <c r="I70" s="15">
+        <v>0.1108</v>
+      </c>
+      <c r="J70" s="16">
+        <v>60878</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="L70" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H70" s="14">
-        <v>15.832142857142861</v>
-      </c>
-      <c r="I70" s="15">
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="J70" s="16">
-        <v>135859</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="L70" s="10" t="s">
-        <v>4</v>
-      </c>
       <c r="M70" s="12">
-        <v>608</v>
+        <v>525</v>
       </c>
       <c r="N70" s="12">
-        <v>723</v>
+        <v>505</v>
       </c>
       <c r="O70" s="12">
-        <v>64425</v>
+        <v>89177</v>
       </c>
       <c r="P70" s="17">
         <f>N70/O70*100</f>
-        <v>1.1222351571594877</v>
+        <v>0.56628951411238326</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="10" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D71" s="12">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E71" s="14">
-        <v>3.5973383769863161</v>
+        <v>3.231540976373763</v>
       </c>
       <c r="F71" s="13">
-        <v>64672</v>
-      </c>
-      <c r="G71" s="13">
-        <v>28</v>
+        <v>165698</v>
+      </c>
+      <c r="G71" s="32">
+        <v>30</v>
       </c>
       <c r="H71" s="14">
-        <v>21.75</v>
+        <v>13.07348484848484</v>
       </c>
       <c r="I71" s="15">
-        <v>0.18</v>
+        <v>0.15129999999999999</v>
       </c>
       <c r="J71" s="16">
-        <v>55608</v>
+        <v>163962</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="L71" s="10" t="s">
         <v>60</v>
       </c>
       <c r="M71" s="12">
-        <v>396</v>
+        <v>1600</v>
       </c>
       <c r="N71" s="12">
-        <v>443</v>
+        <v>1549</v>
       </c>
       <c r="O71" s="12">
-        <v>102767</v>
+        <v>100162</v>
       </c>
       <c r="P71" s="17">
         <f>N71/O71*100</f>
-        <v>0.43107223135831535</v>
+        <v>1.5464946786206346</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D72" s="12">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="E72" s="14">
-        <v>3.6181845234130621</v>
+        <v>3.013892118083453</v>
       </c>
       <c r="F72" s="13">
-        <v>60915</v>
-      </c>
-      <c r="G72" s="13">
-        <v>34</v>
+        <v>269314</v>
+      </c>
+      <c r="G72" s="32">
+        <v>24</v>
       </c>
       <c r="H72" s="14">
-        <v>22.402380952380959</v>
+        <v>9.2333333333333325</v>
       </c>
       <c r="I72" s="15">
-        <v>0.1825</v>
+        <v>0.1229</v>
       </c>
       <c r="J72" s="16">
-        <v>52643</v>
+        <v>267511</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>25</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M72" s="12">
-        <v>688</v>
+        <v>4058</v>
       </c>
       <c r="N72" s="12">
-        <v>777</v>
+        <v>3960</v>
       </c>
       <c r="O72" s="12">
         <v>285331</v>
       </c>
       <c r="P72" s="17">
         <f>N72/O72*100</f>
-        <v>0.27231531098969269</v>
+        <v>1.3878618166270051</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>234</v>
+        <v>186</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D73" s="12">
-        <v>179</v>
+        <v>47</v>
       </c>
       <c r="E73" s="14">
-        <v>3.3175225085260749</v>
+        <v>3.2652850291579658</v>
       </c>
       <c r="F73" s="13">
-        <v>134938</v>
-      </c>
-      <c r="G73" s="13">
-        <v>31</v>
+        <v>153040</v>
+      </c>
+      <c r="G73" s="32">
+        <v>16</v>
       </c>
       <c r="H73" s="14">
-        <v>12.45341428039851</v>
+        <v>9.2261904761904763</v>
       </c>
       <c r="I73" s="15">
-        <v>0.18759999999999999</v>
+        <v>2.7199999999999998E-2</v>
       </c>
       <c r="J73" s="16">
-        <v>117966</v>
+        <v>167032</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M73" s="12">
-        <v>493</v>
+        <v>2091</v>
       </c>
       <c r="N73" s="12">
-        <v>558</v>
+        <v>1869</v>
       </c>
       <c r="O73" s="12">
-        <v>52403</v>
+        <v>229150</v>
       </c>
       <c r="P73" s="17">
         <f>N73/O73*100</f>
-        <v>1.0648245329465871</v>
+        <v>0.81562295439668342</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D74" s="12">
-        <v>122</v>
+        <v>548</v>
       </c>
       <c r="E74" s="14">
-        <v>3.2892608139481001</v>
+        <v>3.8062160605722402</v>
       </c>
       <c r="F74" s="13">
-        <v>144520</v>
-      </c>
-      <c r="G74" s="13">
-        <v>31</v>
+        <v>34245</v>
+      </c>
+      <c r="G74" s="32">
+        <v>46</v>
       </c>
       <c r="H74" s="14">
-        <v>13.957478632478621</v>
+        <v>26.649999999999981</v>
       </c>
       <c r="I74" s="15">
-        <v>0.1898</v>
+        <v>0.10680000000000001</v>
       </c>
       <c r="J74" s="16">
-        <v>134639</v>
+        <v>34720</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M74" s="12">
-        <v>606</v>
+        <v>565</v>
       </c>
       <c r="N74" s="12">
-        <v>630</v>
+        <v>581</v>
       </c>
       <c r="O74" s="12">
-        <v>64425</v>
+        <v>253359</v>
       </c>
       <c r="P74" s="17">
         <f>N74/O74*100</f>
-        <v>0.97788125727590225</v>
+        <v>0.22931887164063641</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A75" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="B75" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="C75" s="11" t="s">
+      <c r="A75" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="12">
-        <v>67</v>
-      </c>
-      <c r="E75" s="14">
-        <v>3.3390778249127782</v>
-      </c>
-      <c r="F75" s="13">
-        <v>127831</v>
-      </c>
-      <c r="G75" s="13">
-        <v>22</v>
-      </c>
-      <c r="H75" s="14">
-        <v>16.538888888888891</v>
-      </c>
-      <c r="I75" s="15">
-        <v>0.19270000000000001</v>
-      </c>
-      <c r="J75" s="16">
-        <v>114414</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="L75" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="M75" s="12">
-        <v>149</v>
-      </c>
-      <c r="N75" s="12">
-        <v>178</v>
-      </c>
-      <c r="O75" s="12">
-        <v>23751</v>
+      <c r="D75" s="20">
+        <v>407</v>
+      </c>
+      <c r="E75" s="22">
+        <v>3.9511924981078952</v>
+      </c>
+      <c r="F75" s="21">
+        <v>21002</v>
+      </c>
+      <c r="G75" s="33">
+        <v>87</v>
+      </c>
+      <c r="H75" s="22">
+        <v>30.438702487939931</v>
+      </c>
+      <c r="I75" s="23">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="J75" s="24">
+        <v>18917</v>
+      </c>
+      <c r="K75" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="L75" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M75" s="20">
+        <v>498</v>
+      </c>
+      <c r="N75" s="20">
+        <v>545</v>
+      </c>
+      <c r="O75" s="20">
+        <v>81805</v>
       </c>
       <c r="P75" s="17">
         <f>N75/O75*100</f>
-        <v>0.74944212875247362</v>
+        <v>0.66621844630523808</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>53</v>
+        <v>193</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>47</v>
+        <v>194</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D76" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="E76" s="14">
-        <v>3.3022765310251669</v>
+        <v>3.0411165422415118</v>
       </c>
       <c r="F76" s="13">
-        <v>140030</v>
-      </c>
-      <c r="G76" s="13">
-        <v>23</v>
+        <v>254161</v>
+      </c>
+      <c r="G76" s="32">
+        <v>9</v>
       </c>
       <c r="H76" s="14">
-        <v>14.45</v>
+        <v>7.3928571428571432</v>
       </c>
       <c r="I76" s="15">
-        <v>0.19589999999999999</v>
+        <v>7.4999999999999997E-3</v>
       </c>
       <c r="J76" s="16">
-        <v>129110</v>
+        <v>290877</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M76" s="12">
-        <v>989</v>
+        <v>5164</v>
       </c>
       <c r="N76" s="12">
-        <v>1000</v>
+        <v>4316</v>
       </c>
       <c r="O76" s="12">
-        <v>71123</v>
+        <v>253359</v>
       </c>
       <c r="P76" s="17">
         <f>N76/O76*100</f>
-        <v>1.4060149318785766</v>
+        <v>1.7035116179018706</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -5241,7 +5535,7 @@
       <c r="F77" s="13">
         <v>145557</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="32">
         <v>22</v>
       </c>
       <c r="H77" s="14">
@@ -5275,187 +5569,187 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D78" s="12">
-        <v>296</v>
+        <v>61</v>
       </c>
       <c r="E78" s="14">
-        <v>3.011625273752077</v>
+        <v>2.9620179425891822</v>
       </c>
       <c r="F78" s="13">
-        <v>270638</v>
-      </c>
-      <c r="G78" s="13">
-        <v>19</v>
+        <v>300451</v>
+      </c>
+      <c r="G78" s="32">
+        <v>17</v>
       </c>
       <c r="H78" s="14">
-        <v>10.853968253968249</v>
+        <v>8.4773809523809511</v>
       </c>
       <c r="I78" s="15">
-        <v>0.20399999999999999</v>
+        <v>0.1106</v>
       </c>
       <c r="J78" s="16">
-        <v>231262</v>
+        <v>285339</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M78" s="12">
-        <v>355</v>
+        <v>5050</v>
       </c>
       <c r="N78" s="12">
-        <v>432</v>
+        <v>5171</v>
       </c>
       <c r="O78" s="12">
-        <v>28228</v>
+        <v>253359</v>
       </c>
       <c r="P78" s="17">
         <f>N78/O78*100</f>
-        <v>1.5303953521326341</v>
+        <v>2.0409774272869723</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="10" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>97</v>
+        <v>1</v>
       </c>
       <c r="D79" s="12">
-        <v>285</v>
+        <v>93</v>
       </c>
       <c r="E79" s="14">
-        <v>2.956544784620259</v>
+        <v>3.0766728930021241</v>
       </c>
       <c r="F79" s="13">
-        <v>303964</v>
-      </c>
-      <c r="G79" s="13">
-        <v>21</v>
+        <v>235310</v>
+      </c>
+      <c r="G79" s="32">
+        <v>26</v>
       </c>
       <c r="H79" s="14">
-        <v>13.16666666666667</v>
+        <v>10.889365209953439</v>
       </c>
       <c r="I79" s="15">
-        <v>0.2046</v>
+        <v>0.44280000000000003</v>
       </c>
       <c r="J79" s="16">
-        <v>281515</v>
+        <v>151462</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="L79" s="10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M79" s="12">
-        <v>2836</v>
+        <v>751</v>
       </c>
       <c r="N79" s="12">
-        <v>3024</v>
+        <v>1244</v>
       </c>
       <c r="O79" s="12">
-        <v>183648</v>
+        <v>51126</v>
       </c>
       <c r="P79" s="17">
         <f>N79/O79*100</f>
-        <v>1.6466283324621016</v>
+        <v>2.4332042405038532</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="10" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>132</v>
+        <v>1</v>
       </c>
       <c r="D80" s="12">
-        <v>221</v>
+        <v>125</v>
       </c>
       <c r="E80" s="14">
-        <v>3.3723561754968041</v>
+        <v>3.308435445963342</v>
       </c>
       <c r="F80" s="13">
-        <v>117820</v>
-      </c>
-      <c r="G80" s="13">
-        <v>17</v>
+        <v>137959</v>
+      </c>
+      <c r="G80" s="32">
+        <v>22</v>
       </c>
       <c r="H80" s="14">
-        <v>12.96851851851852</v>
+        <v>16.416666666666671</v>
       </c>
       <c r="I80" s="15">
-        <v>0.20910000000000001</v>
+        <v>0.2157</v>
       </c>
       <c r="J80" s="16">
-        <v>105518</v>
+        <v>122164</v>
       </c>
       <c r="K80" s="10" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M80" s="12">
-        <v>1685</v>
+        <v>935</v>
       </c>
       <c r="N80" s="12">
-        <v>1880</v>
+        <v>1005</v>
       </c>
       <c r="O80" s="12">
-        <v>253359</v>
+        <v>96361</v>
       </c>
       <c r="P80" s="17">
         <f>N80/O80*100</f>
-        <v>0.74203008379414193</v>
+        <v>1.0429530619233922</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="10" t="s">
-        <v>38</v>
+        <v>257</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>39</v>
+        <v>258</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D81" s="12">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="E81" s="14">
-        <v>3.3791004745678812</v>
+        <v>4.2368034883002226</v>
       </c>
       <c r="F81" s="13">
-        <v>115829</v>
-      </c>
-      <c r="G81" s="13">
-        <v>28</v>
+        <v>7101</v>
+      </c>
+      <c r="G81" s="32">
+        <v>55</v>
       </c>
       <c r="H81" s="14">
-        <v>11.268552003551999</v>
+        <v>32.35</v>
       </c>
       <c r="I81" s="15">
-        <v>0.2112</v>
+        <v>4.0199999999999993E-2</v>
       </c>
       <c r="J81" s="16">
-        <v>105717</v>
+        <v>8365</v>
       </c>
       <c r="K81" s="10" t="s">
         <v>40</v>
@@ -5464,1392 +5758,1390 @@
         <v>11</v>
       </c>
       <c r="M81" s="12">
-        <v>2045</v>
+        <v>136</v>
       </c>
       <c r="N81" s="12">
-        <v>1958</v>
+        <v>113</v>
       </c>
       <c r="O81" s="12">
         <v>135975</v>
       </c>
       <c r="P81" s="17">
         <f>N81/O81*100</f>
-        <v>1.4399705828277256</v>
+        <v>8.3103511674940247E-2</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="10" t="s">
-        <v>241</v>
+        <v>33</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D82" s="12">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="E82" s="14">
-        <v>3.2623454788143378</v>
+        <v>3.502330915868848</v>
       </c>
       <c r="F82" s="13">
-        <v>154114</v>
-      </c>
-      <c r="G82" s="13">
-        <v>27</v>
+        <v>83999</v>
+      </c>
+      <c r="G82" s="32">
+        <v>28</v>
       </c>
       <c r="H82" s="14">
-        <v>16.905952380952382</v>
+        <v>18.240966386554611</v>
       </c>
       <c r="I82" s="15">
-        <v>0.2157</v>
+        <v>0.39119999999999999</v>
       </c>
       <c r="J82" s="16">
-        <v>138862</v>
+        <v>49604</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>140</v>
+        <v>34</v>
       </c>
       <c r="L82" s="10" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M82" s="12">
-        <v>419</v>
+        <v>789</v>
       </c>
       <c r="N82" s="12">
-        <v>453</v>
+        <v>1334</v>
       </c>
       <c r="O82" s="12">
-        <v>105029</v>
+        <v>253359</v>
       </c>
       <c r="P82" s="17">
         <f>N82/O82*100</f>
-        <v>0.43130944786677961</v>
+        <v>0.5265256020113751</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="10" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D83" s="12">
-        <v>125</v>
+        <v>61</v>
       </c>
       <c r="E83" s="14">
-        <v>3.308435445963342</v>
+        <v>2.9463086711005348</v>
       </c>
       <c r="F83" s="13">
-        <v>137959</v>
-      </c>
-      <c r="G83" s="13">
-        <v>22</v>
+        <v>310668</v>
+      </c>
+      <c r="G83" s="32">
+        <v>30</v>
       </c>
       <c r="H83" s="14">
-        <v>16.416666666666671</v>
+        <v>13.241666666666671</v>
       </c>
       <c r="I83" s="15">
-        <v>0.2157</v>
+        <v>0.26119999999999999</v>
       </c>
       <c r="J83" s="16">
-        <v>122164</v>
+        <v>289866</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="L83" s="10" t="s">
         <v>4</v>
       </c>
       <c r="M83" s="12">
-        <v>935</v>
+        <v>4459</v>
       </c>
       <c r="N83" s="12">
-        <v>1005</v>
+        <v>4702</v>
       </c>
       <c r="O83" s="12">
-        <v>96361</v>
+        <v>285331</v>
       </c>
       <c r="P83" s="17">
         <f>N83/O83*100</f>
-        <v>1.0429530619233922</v>
+        <v>1.6479106721667116</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D84" s="12">
-        <v>607</v>
+        <v>153</v>
       </c>
       <c r="E84" s="14">
-        <v>4.1358377554761061</v>
+        <v>3.3002672863136921</v>
       </c>
       <c r="F84" s="13">
-        <v>10645</v>
-      </c>
-      <c r="G84" s="13">
-        <v>56</v>
+        <v>140782</v>
+      </c>
+      <c r="G84" s="32">
+        <v>46</v>
       </c>
       <c r="H84" s="14">
-        <v>31.737157185250389</v>
+        <v>17.877276989531889</v>
       </c>
       <c r="I84" s="15">
-        <v>0.21659999999999999</v>
+        <v>0.31180000000000002</v>
       </c>
       <c r="J84" s="16">
-        <v>8042</v>
+        <v>109534</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L84" s="10" t="s">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="M84" s="12">
-        <v>45</v>
+        <v>458</v>
       </c>
       <c r="N84" s="12">
-        <v>55</v>
+        <v>594</v>
       </c>
       <c r="O84" s="12">
-        <v>102767</v>
+        <v>52403</v>
       </c>
       <c r="P84" s="17">
         <f>N84/O84*100</f>
-        <v>5.351912578940711E-2</v>
+        <v>1.1335228899108829</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="10" t="s">
-        <v>8</v>
+        <v>199</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="C85" s="11" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D85" s="12">
-        <v>675</v>
+        <v>213</v>
       </c>
       <c r="E85" s="14">
-        <v>3.9427421625705699</v>
+        <v>3.078523581846218</v>
       </c>
       <c r="F85" s="13">
-        <v>21640</v>
-      </c>
-      <c r="G85" s="13">
-        <v>47</v>
+        <v>234331</v>
+      </c>
+      <c r="G85" s="32">
+        <v>27</v>
       </c>
       <c r="H85" s="14">
-        <v>29.19160561660561</v>
+        <v>12.905591630591619</v>
       </c>
       <c r="I85" s="15">
-        <v>0.2177</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="J85" s="16">
-        <v>18278</v>
+        <v>248700</v>
       </c>
       <c r="K85" s="10" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L85" s="10" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M85" s="12">
-        <v>487</v>
+        <v>2444</v>
       </c>
       <c r="N85" s="12">
-        <v>528</v>
+        <v>2264</v>
       </c>
       <c r="O85" s="12">
-        <v>92738</v>
+        <v>183648</v>
       </c>
       <c r="P85" s="17">
         <f>N85/O85*100</f>
-        <v>0.56934589919989653</v>
+        <v>1.232793169541732</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>80</v>
+        <v>203</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D86" s="12">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="E86" s="14">
-        <v>2.9883946386572711</v>
+        <v>3.3255256672922791</v>
       </c>
       <c r="F86" s="13">
-        <v>284335</v>
-      </c>
-      <c r="G86" s="13">
-        <v>16</v>
+        <v>132248</v>
+      </c>
+      <c r="G86" s="32">
+        <v>28</v>
       </c>
       <c r="H86" s="14">
-        <v>10.91666666666667</v>
+        <v>9.4803276632798301</v>
       </c>
       <c r="I86" s="15">
-        <v>0.22220000000000001</v>
+        <v>0.113</v>
       </c>
       <c r="J86" s="16">
-        <v>249930</v>
+        <v>101310</v>
       </c>
       <c r="K86" s="10" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="L86" s="10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M86" s="12">
-        <v>1901</v>
+        <v>872</v>
       </c>
       <c r="N86" s="12">
-        <v>2082</v>
+        <v>1205</v>
       </c>
       <c r="O86" s="12">
-        <v>96361</v>
+        <v>55837</v>
       </c>
       <c r="P86" s="17">
         <f>N86/O86*100</f>
-        <v>2.1606251491786095</v>
+        <v>2.1580672314056986</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C87" s="11"/>
+        <v>205</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>100</v>
+      </c>
       <c r="D87" s="12">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="E87" s="14">
-        <v>3.0775278128652008</v>
+        <v>3.5973383769863161</v>
       </c>
       <c r="F87" s="13">
-        <v>234854</v>
-      </c>
-      <c r="G87" s="13">
-        <v>22</v>
+        <v>64672</v>
+      </c>
+      <c r="G87" s="32">
+        <v>28</v>
       </c>
       <c r="H87" s="14">
-        <v>13.11212121212121</v>
+        <v>21.75</v>
       </c>
       <c r="I87" s="15">
-        <v>0.25569999999999998</v>
+        <v>0.18</v>
       </c>
       <c r="J87" s="16">
-        <v>195732</v>
+        <v>55608</v>
       </c>
       <c r="K87" s="10" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L87" s="10" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="M87" s="12">
-        <v>3327</v>
+        <v>396</v>
       </c>
       <c r="N87" s="12">
-        <v>3946</v>
+        <v>443</v>
       </c>
       <c r="O87" s="12">
-        <v>253359</v>
+        <v>102767</v>
       </c>
       <c r="P87" s="17">
         <f>N87/O87*100</f>
-        <v>1.5574737822615341</v>
+        <v>0.43107223135831535</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>85</v>
+        <v>206</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>1</v>
+        <v>208</v>
       </c>
       <c r="D88" s="12">
         <v>61</v>
       </c>
       <c r="E88" s="14">
-        <v>2.8121724659035352</v>
+        <v>3.418607752950801</v>
       </c>
       <c r="F88" s="13">
-        <v>409502</v>
-      </c>
-      <c r="G88" s="13">
-        <v>12</v>
+        <v>104784</v>
+      </c>
+      <c r="G88" s="32">
+        <v>27</v>
       </c>
       <c r="H88" s="14">
-        <v>9</v>
+        <v>11.74801587301587</v>
       </c>
       <c r="I88" s="15">
-        <v>0.25950000000000001</v>
+        <v>6.2E-2</v>
       </c>
       <c r="J88" s="16">
-        <v>349474</v>
+        <v>108236</v>
       </c>
       <c r="K88" s="10" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="L88" s="10" t="s">
         <v>11</v>
       </c>
       <c r="M88" s="12">
-        <v>5567</v>
+        <v>3065</v>
       </c>
       <c r="N88" s="12">
-        <v>6490</v>
+        <v>2803</v>
       </c>
       <c r="O88" s="12">
-        <v>285331</v>
+        <v>269833</v>
       </c>
       <c r="P88" s="17">
         <f>N88/O88*100</f>
-        <v>2.2745513105831474</v>
+        <v>1.038790659407856</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C89" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D89" s="12">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="E89" s="14">
-        <v>2.9463086711005348</v>
+        <v>3.16341673144017</v>
       </c>
       <c r="F89" s="13">
-        <v>310668</v>
-      </c>
-      <c r="G89" s="13">
-        <v>30</v>
+        <v>193827</v>
+      </c>
+      <c r="G89" s="32">
+        <v>24</v>
       </c>
       <c r="H89" s="14">
-        <v>13.241666666666671</v>
+        <v>8.9566849816849796</v>
       </c>
       <c r="I89" s="15">
-        <v>0.26119999999999999</v>
+        <v>0.12089999999999999</v>
       </c>
       <c r="J89" s="16">
-        <v>289866</v>
+        <v>173018</v>
       </c>
       <c r="K89" s="10" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L89" s="10" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="M89" s="12">
-        <v>4459</v>
+        <v>1113</v>
       </c>
       <c r="N89" s="12">
-        <v>4702</v>
+        <v>1271</v>
       </c>
       <c r="O89" s="12">
-        <v>285331</v>
+        <v>77304</v>
       </c>
       <c r="P89" s="17">
         <f>N89/O89*100</f>
-        <v>1.6479106721667116</v>
+        <v>1.6441581289454621</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="D90" s="12">
-        <v>109</v>
+        <v>296</v>
       </c>
       <c r="E90" s="14">
-        <v>3.132135736348868</v>
+        <v>3.011625273752077</v>
       </c>
       <c r="F90" s="13">
-        <v>208238</v>
-      </c>
-      <c r="G90" s="13">
-        <v>17</v>
+        <v>270638</v>
+      </c>
+      <c r="G90" s="32">
+        <v>19</v>
       </c>
       <c r="H90" s="14">
-        <v>11.70882352941176</v>
+        <v>10.853968253968249</v>
       </c>
       <c r="I90" s="15">
-        <v>0.26939999999999997</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="J90" s="16">
-        <v>183796</v>
+        <v>231262</v>
       </c>
       <c r="K90" s="10" t="s">
-        <v>34</v>
+        <v>210</v>
       </c>
       <c r="L90" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M90" s="12">
-        <v>3084</v>
+        <v>355</v>
       </c>
       <c r="N90" s="12">
-        <v>3457</v>
+        <v>432</v>
       </c>
       <c r="O90" s="12">
-        <v>253359</v>
+        <v>28228</v>
       </c>
       <c r="P90" s="17">
         <f>N90/O90*100</f>
-        <v>1.3644670211044407</v>
+        <v>1.5303953521326341</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="D91" s="12">
-        <v>194</v>
+        <v>72</v>
       </c>
       <c r="E91" s="14">
-        <v>3.142124573992604</v>
+        <v>2.9323034437856772</v>
       </c>
       <c r="F91" s="13">
-        <v>203553</v>
-      </c>
-      <c r="G91" s="13">
-        <v>31</v>
+        <v>319946</v>
+      </c>
+      <c r="G91" s="32">
+        <v>22</v>
       </c>
       <c r="H91" s="14">
-        <v>14.68218322507488</v>
+        <v>9.6083333333333325</v>
       </c>
       <c r="I91" s="15">
-        <v>0.2732</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="J91" s="16">
-        <v>160419</v>
+        <v>320780</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L91" s="10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M91" s="12">
-        <v>2297</v>
+        <v>4518</v>
       </c>
       <c r="N91" s="12">
-        <v>2875</v>
+        <v>4462</v>
       </c>
       <c r="O91" s="12">
-        <v>285331</v>
+        <v>229150</v>
       </c>
       <c r="P91" s="17">
         <f>N91/O91*100</f>
-        <v>1.0076016976774342</v>
+        <v>1.9471961597207068</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>82</v>
+        <v>214</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>50</v>
+        <v>215</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D92" s="12">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="E92" s="14">
-        <v>2.9590353675270258</v>
+        <v>3.4454340294484469</v>
       </c>
       <c r="F92" s="13">
-        <v>302365</v>
-      </c>
-      <c r="G92" s="13">
-        <v>21</v>
+        <v>97734</v>
+      </c>
+      <c r="G92" s="32">
+        <v>55</v>
       </c>
       <c r="H92" s="14">
-        <v>10.94087301587302</v>
+        <v>21.381499932815711</v>
       </c>
       <c r="I92" s="15">
-        <v>0.27800000000000002</v>
+        <v>0.1447</v>
       </c>
       <c r="J92" s="16">
-        <v>225162</v>
+        <v>96524</v>
       </c>
       <c r="K92" s="10" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="L92" s="10" t="s">
-        <v>28</v>
+        <v>124</v>
       </c>
       <c r="M92" s="12">
-        <v>2944</v>
+        <v>1300</v>
       </c>
       <c r="N92" s="12">
-        <v>4150</v>
+        <v>1332</v>
       </c>
       <c r="O92" s="12">
-        <v>229150</v>
+        <v>134814</v>
       </c>
       <c r="P92" s="17">
         <f>N92/O92*100</f>
-        <v>1.8110408029674885</v>
+        <v>0.98802794961947571</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>19</v>
+        <v>216</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>20</v>
+        <v>217</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D93" s="12">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="E93" s="14">
-        <v>3.6926990009887581</v>
+        <v>3.0972919750024901</v>
       </c>
       <c r="F93" s="13">
-        <v>48860</v>
-      </c>
-      <c r="G93" s="13">
-        <v>51</v>
+        <v>224933</v>
+      </c>
+      <c r="G93" s="32">
+        <v>15</v>
       </c>
       <c r="H93" s="14">
-        <v>24.635714285714268</v>
+        <v>11.16666666666667</v>
       </c>
       <c r="I93" s="15">
-        <v>0.29930000000000001</v>
+        <v>8.5199999999999998E-2</v>
       </c>
       <c r="J93" s="16">
-        <v>33735</v>
+        <v>245759</v>
       </c>
       <c r="K93" s="10" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="L93" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M93" s="12">
-        <v>79</v>
+        <v>1085</v>
       </c>
       <c r="N93" s="12">
-        <v>105</v>
+        <v>885</v>
       </c>
       <c r="O93" s="12">
-        <v>17766</v>
+        <v>64512</v>
       </c>
       <c r="P93" s="17">
         <f>N93/O93*100</f>
-        <v>0.59101654846335694</v>
+        <v>1.3718377976190477</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>134</v>
+        <v>219</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>100</v>
+        <v>220</v>
       </c>
       <c r="D94" s="12">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E94" s="14">
-        <v>3.0941539916282288</v>
+        <v>2.5828818420574469</v>
       </c>
       <c r="F94" s="13">
-        <v>226497</v>
-      </c>
-      <c r="G94" s="13">
-        <v>22</v>
+        <v>643208</v>
+      </c>
+      <c r="G94" s="32">
+        <v>21</v>
       </c>
       <c r="H94" s="14">
-        <v>12.347619047619039</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="I94" s="15">
-        <v>0.3044</v>
+        <v>0.05</v>
       </c>
       <c r="J94" s="16">
-        <v>197611</v>
+        <v>695429</v>
       </c>
       <c r="K94" s="10" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="L94" s="10" t="s">
-        <v>124</v>
+        <v>4</v>
       </c>
       <c r="M94" s="12">
-        <v>143</v>
+        <v>477</v>
       </c>
       <c r="N94" s="12">
-        <v>138</v>
+        <v>417</v>
       </c>
       <c r="O94" s="12">
-        <v>14362</v>
+        <v>30699</v>
       </c>
       <c r="P94" s="17">
         <f>N94/O94*100</f>
-        <v>0.96086895975490882</v>
+        <v>1.3583504348675852</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>54</v>
+        <v>222</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D95" s="12">
-        <v>153</v>
+        <v>72</v>
       </c>
       <c r="E95" s="14">
-        <v>3.3002672863136921</v>
+        <v>3.1307102784693108</v>
       </c>
       <c r="F95" s="13">
-        <v>140782</v>
-      </c>
-      <c r="G95" s="13">
-        <v>46</v>
+        <v>208878</v>
+      </c>
+      <c r="G95" s="32">
+        <v>18</v>
       </c>
       <c r="H95" s="14">
-        <v>17.877276989531889</v>
+        <v>13.366666666666671</v>
       </c>
       <c r="I95" s="15">
-        <v>0.31180000000000002</v>
+        <v>0.1013</v>
       </c>
       <c r="J95" s="16">
-        <v>109534</v>
+        <v>219182</v>
       </c>
       <c r="K95" s="10" t="s">
-        <v>55</v>
+        <v>224</v>
       </c>
       <c r="L95" s="10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="M95" s="12">
-        <v>458</v>
+        <v>99</v>
       </c>
       <c r="N95" s="12">
-        <v>594</v>
+        <v>98</v>
       </c>
       <c r="O95" s="12">
-        <v>52403</v>
+        <v>7118</v>
       </c>
       <c r="P95" s="17">
         <f>N95/O95*100</f>
-        <v>1.1335228899108829</v>
+        <v>1.3767912334925541</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>75</v>
+        <v>225</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D96" s="12">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="E96" s="14">
-        <v>3.0288870975706268</v>
+        <v>3.566437573527971</v>
       </c>
       <c r="F96" s="13">
-        <v>260841</v>
-      </c>
-      <c r="G96" s="13">
-        <v>21</v>
+        <v>70512</v>
+      </c>
+      <c r="G96" s="32">
+        <v>33</v>
       </c>
       <c r="H96" s="14">
-        <v>11.053571428571431</v>
+        <v>18.429700854700851</v>
       </c>
       <c r="I96" s="15">
-        <v>0.31509999999999999</v>
+        <v>0.1188</v>
       </c>
       <c r="J96" s="16">
-        <v>208381</v>
+        <v>71141</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="L96" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M96" s="12">
-        <v>3050</v>
+        <v>600</v>
       </c>
       <c r="N96" s="12">
-        <v>3807</v>
+        <v>605</v>
       </c>
       <c r="O96" s="12">
-        <v>285331</v>
+        <v>183648</v>
       </c>
       <c r="P96" s="17">
         <f>N96/O96*100</f>
-        <v>1.3342398828027799</v>
+        <v>0.32943457048266245</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>1</v>
       </c>
       <c r="D97" s="12">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E97" s="14">
-        <v>3.0776572947219041</v>
+        <v>3.5145325353407948</v>
       </c>
       <c r="F97" s="13">
-        <v>234801</v>
-      </c>
-      <c r="G97" s="13">
-        <v>20</v>
+        <v>81257</v>
+      </c>
+      <c r="G97" s="32">
+        <v>22</v>
       </c>
       <c r="H97" s="14">
-        <v>13.469877344877339</v>
+        <v>13.75</v>
       </c>
       <c r="I97" s="15">
-        <v>0.31590000000000001</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="J97" s="16">
-        <v>183963</v>
+        <v>89069</v>
       </c>
       <c r="K97" s="10" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="L97" s="10" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="M97" s="12">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="N97" s="12">
-        <v>512</v>
+        <v>303</v>
       </c>
       <c r="O97" s="12">
-        <v>30244</v>
+        <v>26063</v>
       </c>
       <c r="P97" s="17">
         <f>N97/O97*100</f>
-        <v>1.6928977648459198</v>
+        <v>1.1625676246019261</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="D98" s="12">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="E98" s="14">
-        <v>2.9204102798566769</v>
+        <v>3.304958205921654</v>
       </c>
       <c r="F98" s="13">
-        <v>328016</v>
-      </c>
-      <c r="G98" s="13">
-        <v>20</v>
+        <v>139167</v>
+      </c>
+      <c r="G98" s="32">
+        <v>36</v>
       </c>
       <c r="H98" s="14">
-        <v>10.87619047619047</v>
+        <v>15.85638528138527</v>
       </c>
       <c r="I98" s="15">
-        <v>0.33169999999999999</v>
+        <v>0.1532</v>
       </c>
       <c r="J98" s="16">
-        <v>239742</v>
+        <v>136342</v>
       </c>
       <c r="K98" s="10" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="L98" s="10" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="M98" s="12">
-        <v>1800</v>
+        <v>3943</v>
       </c>
       <c r="N98" s="12">
-        <v>2366</v>
+        <v>3817</v>
       </c>
       <c r="O98" s="12">
-        <v>109724</v>
+        <v>269833</v>
       </c>
       <c r="P98" s="17">
         <f>N98/O98*100</f>
-        <v>2.1563194925449309</v>
+        <v>1.4145786467926458</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C99" s="11" t="s">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D99" s="12">
-        <v>353</v>
+        <v>53</v>
       </c>
       <c r="E99" s="14">
-        <v>3.4830605520879758</v>
+        <v>3.3167478615927068</v>
       </c>
       <c r="F99" s="13">
-        <v>88417</v>
-      </c>
-      <c r="G99" s="13">
+        <v>135179</v>
+      </c>
+      <c r="G99" s="32">
+        <v>25</v>
+      </c>
+      <c r="H99" s="14">
+        <v>11.9</v>
+      </c>
+      <c r="I99" s="15">
+        <v>6.1100000000000002E-2</v>
+      </c>
+      <c r="J99" s="16">
+        <v>153238</v>
+      </c>
+      <c r="K99" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H99" s="14">
-        <v>16.582312404079719</v>
-      </c>
-      <c r="I99" s="15">
-        <v>0.34520000000000001</v>
-      </c>
-      <c r="J99" s="16">
-        <v>78517</v>
-      </c>
-      <c r="K99" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="L99" s="10" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M99" s="12">
-        <v>661</v>
+        <v>714</v>
       </c>
       <c r="N99" s="12">
-        <v>766</v>
+        <v>612</v>
       </c>
       <c r="O99" s="12">
-        <v>183648</v>
+        <v>58351</v>
       </c>
       <c r="P99" s="17">
         <f>N99/O99*100</f>
-        <v>0.41710228262763543</v>
+        <v>1.0488252129355109</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>142</v>
+        <v>269</v>
       </c>
       <c r="C100" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D100" s="12">
-        <v>133</v>
+        <v>51</v>
       </c>
       <c r="E100" s="14">
-        <v>2.6370630482017781</v>
+        <v>3.3658468143611779</v>
       </c>
       <c r="F100" s="13">
-        <v>579666</v>
-      </c>
-      <c r="G100" s="13">
-        <v>14</v>
+        <v>119748</v>
+      </c>
+      <c r="G100" s="32">
+        <v>16</v>
       </c>
       <c r="H100" s="14">
-        <v>7.9083333333333341</v>
+        <v>9.2000000000000011</v>
       </c>
       <c r="I100" s="15">
-        <v>0.35920000000000002</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="J100" s="16">
-        <v>396744</v>
+        <v>130438</v>
       </c>
       <c r="K100" s="10" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="L100" s="10" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="M100" s="12">
-        <v>2079</v>
+        <v>1033</v>
       </c>
       <c r="N100" s="12">
-        <v>2971</v>
+        <v>915</v>
       </c>
       <c r="O100" s="12">
-        <v>108280</v>
+        <v>102767</v>
       </c>
       <c r="P100" s="17">
         <f>N100/O100*100</f>
-        <v>2.7438123383819728</v>
+        <v>0.89036363813286368</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>5</v>
+        <v>268</v>
       </c>
       <c r="C101" s="11" t="s">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D101" s="12">
-        <v>92</v>
+        <v>607</v>
       </c>
       <c r="E101" s="14">
-        <v>2.9792399022987772</v>
+        <v>4.1358377554761061</v>
       </c>
       <c r="F101" s="13">
-        <v>289869</v>
-      </c>
-      <c r="G101" s="13">
-        <v>16</v>
+        <v>10645</v>
+      </c>
+      <c r="G101" s="32">
+        <v>56</v>
       </c>
       <c r="H101" s="14">
-        <v>11</v>
+        <v>31.737157185250389</v>
       </c>
       <c r="I101" s="15">
-        <v>0.36809999999999998</v>
+        <v>0.21659999999999999</v>
       </c>
       <c r="J101" s="16">
-        <v>208720</v>
+        <v>8042</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="L101" s="10" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="M101" s="12">
-        <v>1541</v>
+        <v>45</v>
       </c>
       <c r="N101" s="12">
-        <v>2079</v>
+        <v>55</v>
       </c>
       <c r="O101" s="12">
-        <v>109724</v>
+        <v>102767</v>
       </c>
       <c r="P101" s="17">
         <f>N101/O101*100</f>
-        <v>1.8947541103131496</v>
+        <v>5.351912578940711E-2</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>24</v>
+        <v>271</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D102" s="12">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E102" s="14">
-        <v>3.502330915868848</v>
+        <v>3.4338417778545902</v>
       </c>
       <c r="F102" s="13">
-        <v>83999</v>
-      </c>
-      <c r="G102" s="13">
-        <v>28</v>
+        <v>100673</v>
+      </c>
+      <c r="G102" s="32">
+        <v>44</v>
       </c>
       <c r="H102" s="14">
-        <v>18.240966386554611</v>
+        <v>21.74583333333333</v>
       </c>
       <c r="I102" s="15">
-        <v>0.39119999999999999</v>
+        <v>0.1045</v>
       </c>
       <c r="J102" s="16">
-        <v>49604</v>
+        <v>109711</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L102" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M102" s="12">
-        <v>789</v>
+        <v>972</v>
       </c>
       <c r="N102" s="12">
-        <v>1334</v>
+        <v>883</v>
       </c>
       <c r="O102" s="12">
-        <v>253359</v>
+        <v>183648</v>
       </c>
       <c r="P102" s="17">
         <f>N102/O102*100</f>
-        <v>0.5265256020113751</v>
+        <v>0.48081111691932399</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="10" t="s">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>20</v>
+        <v>271</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D103" s="12">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E103" s="14">
-        <v>3.0531330913794492</v>
+        <v>3.273540804811502</v>
       </c>
       <c r="F103" s="13">
-        <v>247608</v>
-      </c>
-      <c r="G103" s="13">
-        <v>16</v>
+        <v>150089</v>
+      </c>
+      <c r="G103" s="32">
+        <v>33</v>
       </c>
       <c r="H103" s="14">
-        <v>10.983333333333331</v>
+        <v>14.56666666666667</v>
       </c>
       <c r="I103" s="15">
-        <v>0.3992</v>
+        <v>0.1051</v>
       </c>
       <c r="J103" s="16">
-        <v>165150</v>
+        <v>160153</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L103" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M103" s="12">
-        <v>2057</v>
+        <v>1496</v>
       </c>
       <c r="N103" s="12">
-        <v>3260</v>
+        <v>1390</v>
       </c>
       <c r="O103" s="12">
-        <v>229150</v>
+        <v>183648</v>
       </c>
       <c r="P103" s="17">
         <f>N103/O103*100</f>
-        <v>1.4226489199214489</v>
+        <v>0.75688273218330715</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="10" t="s">
-        <v>61</v>
+        <v>273</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>5</v>
+        <v>274</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="D104" s="12">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E104" s="14">
-        <v>3.1744612331058519</v>
+        <v>3.0551568855156011</v>
       </c>
       <c r="F104" s="13">
-        <v>188914</v>
-      </c>
-      <c r="G104" s="13">
-        <v>19</v>
+        <v>246559</v>
+      </c>
+      <c r="G104" s="32">
+        <v>32</v>
       </c>
       <c r="H104" s="14">
-        <v>13.333333333333339</v>
+        <v>18.95</v>
       </c>
       <c r="I104" s="15">
-        <v>0.40979999999999989</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="J104" s="16">
-        <v>122691</v>
+        <v>251009</v>
       </c>
       <c r="K104" s="10" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="L104" s="10" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="M104" s="12">
-        <v>2349</v>
+        <v>3760</v>
       </c>
       <c r="N104" s="12">
-        <v>3165</v>
+        <v>3570</v>
       </c>
       <c r="O104" s="12">
-        <v>135975</v>
+        <v>285331</v>
       </c>
       <c r="P104" s="17">
         <f>N104/O104*100</f>
-        <v>2.3276337562051848</v>
+        <v>1.2511784558985879</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="10" t="s">
-        <v>67</v>
+        <v>263</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="11" t="s">
-        <v>1</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="C105" s="11"/>
       <c r="D105" s="12">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="E105" s="14">
-        <v>3.11733858025111</v>
+        <v>3.0167859145637612</v>
       </c>
       <c r="F105" s="13">
-        <v>215126</v>
-      </c>
-      <c r="G105" s="13">
-        <v>14</v>
+        <v>267679</v>
+      </c>
+      <c r="G105" s="32">
+        <v>15</v>
       </c>
       <c r="H105" s="14">
-        <v>11.91666666666667</v>
+        <v>5.8500000000000014</v>
       </c>
       <c r="I105" s="15">
-        <v>0.43459999999999999</v>
+        <v>3.1E-2</v>
       </c>
       <c r="J105" s="16">
-        <v>147558</v>
+        <v>307770</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="L105" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M105" s="12">
-        <v>932</v>
+        <v>4292</v>
       </c>
       <c r="N105" s="12">
-        <v>1503</v>
+        <v>3590</v>
       </c>
       <c r="O105" s="12">
-        <v>59044</v>
+        <v>229150</v>
       </c>
       <c r="P105" s="17">
         <f>N105/O105*100</f>
-        <v>2.5455592439536616</v>
+        <v>1.5666593934104296</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="10" t="s">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>1</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C106" s="11"/>
       <c r="D106" s="12">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="E106" s="14">
-        <v>3.0766728930021241</v>
+        <v>3.0775278128652008</v>
       </c>
       <c r="F106" s="13">
-        <v>235310</v>
-      </c>
-      <c r="G106" s="13">
-        <v>26</v>
+        <v>234854</v>
+      </c>
+      <c r="G106" s="32">
+        <v>22</v>
       </c>
       <c r="H106" s="14">
-        <v>10.889365209953439</v>
+        <v>13.11212121212121</v>
       </c>
       <c r="I106" s="15">
-        <v>0.44280000000000003</v>
+        <v>0.25569999999999998</v>
       </c>
       <c r="J106" s="16">
-        <v>151462</v>
+        <v>195732</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="L106" s="10" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="M106" s="12">
-        <v>751</v>
+        <v>3327</v>
       </c>
       <c r="N106" s="12">
-        <v>1244</v>
+        <v>3946</v>
       </c>
       <c r="O106" s="12">
-        <v>51126</v>
+        <v>253359</v>
       </c>
       <c r="P106" s="17">
         <f>N106/O106*100</f>
-        <v>2.4332042405038532</v>
+        <v>1.5574737822615341</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="10" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>155</v>
+        <v>260</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>100</v>
       </c>
       <c r="D107" s="12">
-        <v>227</v>
+        <v>107</v>
       </c>
       <c r="E107" s="14">
-        <v>3.0616465284443559</v>
+        <v>3.2025633476858602</v>
       </c>
       <c r="F107" s="13">
-        <v>243171</v>
-      </c>
-      <c r="G107" s="13">
-        <v>16</v>
+        <v>177184</v>
+      </c>
+      <c r="G107" s="32">
+        <v>20</v>
       </c>
       <c r="H107" s="14">
-        <v>10.209523809523811</v>
+        <v>12.776190476190481</v>
       </c>
       <c r="I107" s="15">
-        <v>0.46689999999999998</v>
+        <v>9.8000000000000004E-2</v>
       </c>
       <c r="J107" s="16">
-        <v>143076</v>
+        <v>189391</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>156</v>
+        <v>35</v>
       </c>
       <c r="L107" s="10" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="M107" s="12">
-        <v>236</v>
+        <v>1807</v>
       </c>
       <c r="N107" s="12">
-        <v>471</v>
+        <v>1663</v>
       </c>
       <c r="O107" s="12">
-        <v>51361</v>
+        <v>183648</v>
       </c>
       <c r="P107" s="17">
         <f>N107/O107*100</f>
-        <v>0.9170382196608321</v>
+        <v>0.90553667886391354</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="10" t="s">
-        <v>152</v>
+        <v>261</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>153</v>
+        <v>262</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="D108" s="12">
-        <v>346</v>
+        <v>134</v>
       </c>
       <c r="E108" s="14">
-        <v>3.0107718440990601</v>
+        <v>3.5671055264951059</v>
       </c>
       <c r="F108" s="13">
-        <v>271124</v>
-      </c>
-      <c r="G108" s="13">
-        <v>16</v>
+        <v>70359</v>
+      </c>
+      <c r="G108" s="32">
+        <v>31</v>
       </c>
       <c r="H108" s="14">
-        <v>11.15952380952381</v>
+        <v>24.833333333333329</v>
       </c>
       <c r="I108" s="15">
-        <v>0.48330000000000001</v>
+        <v>0.1216</v>
       </c>
       <c r="J108" s="16">
-        <v>135691</v>
+        <v>71804</v>
       </c>
       <c r="K108" s="10" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="L108" s="10" t="s">
         <v>36</v>
       </c>
       <c r="M108" s="12">
-        <v>2206</v>
+        <v>192</v>
       </c>
       <c r="N108" s="12">
-        <v>4649</v>
+        <v>194</v>
       </c>
       <c r="O108" s="12">
-        <v>253359</v>
+        <v>17974</v>
       </c>
       <c r="P108" s="17">
         <f>N108/O108*100</f>
-        <v>1.8349456699781732</v>
+        <v>1.0793368198508957</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.2">
@@ -6871,7 +7163,7 @@
       <c r="F109" s="13">
         <v>630620</v>
       </c>
-      <c r="G109" s="13">
+      <c r="G109" s="32">
         <v>9</v>
       </c>
       <c r="H109" s="14">
@@ -6903,9 +7195,2048 @@
         <v>4.2772018610725651</v>
       </c>
     </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>290</v>
+      </c>
+      <c r="B110" t="s">
+        <v>291</v>
+      </c>
+      <c r="C110" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D110" s="25">
+        <v>56</v>
+      </c>
+      <c r="E110" s="26">
+        <v>3.3009442990319791</v>
+      </c>
+      <c r="F110" s="27">
+        <v>140529</v>
+      </c>
+      <c r="G110" s="34">
+        <v>22</v>
+      </c>
+      <c r="H110" s="26">
+        <v>13.258823529411769</v>
+      </c>
+      <c r="I110" s="28">
+        <v>9.2200000000000004E-2</v>
+      </c>
+      <c r="J110" s="29">
+        <v>149574</v>
+      </c>
+      <c r="K110" t="s">
+        <v>104</v>
+      </c>
+      <c r="L110" t="s">
+        <v>45</v>
+      </c>
+      <c r="M110" s="25">
+        <v>803</v>
+      </c>
+      <c r="N110" s="25">
+        <v>750</v>
+      </c>
+      <c r="O110" s="25">
+        <v>64212</v>
+      </c>
+      <c r="P110" s="9">
+        <f>N110/O110*100</f>
+        <v>1.1680059801906184</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>292</v>
+      </c>
+      <c r="B111" t="s">
+        <v>293</v>
+      </c>
+      <c r="C111" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="25">
+        <v>162</v>
+      </c>
+      <c r="E111" s="26">
+        <v>3.1518220849655121</v>
+      </c>
+      <c r="F111" s="27">
+        <v>199126</v>
+      </c>
+      <c r="G111" s="34">
+        <v>24</v>
+      </c>
+      <c r="H111" s="26">
+        <v>13.73333333333334</v>
+      </c>
+      <c r="I111" s="28">
+        <v>0.14080000000000001</v>
+      </c>
+      <c r="J111" s="29">
+        <v>201307</v>
+      </c>
+      <c r="K111" t="s">
+        <v>34</v>
+      </c>
+      <c r="L111" t="s">
+        <v>36</v>
+      </c>
+      <c r="M111" s="25">
+        <v>3416</v>
+      </c>
+      <c r="N111" s="25">
+        <v>3307</v>
+      </c>
+      <c r="O111" s="25">
+        <v>253359</v>
+      </c>
+      <c r="P111" s="9">
+        <f>N111/O111*100</f>
+        <v>1.3052624931421422</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>294</v>
+      </c>
+      <c r="B112" t="s">
+        <v>295</v>
+      </c>
+      <c r="C112" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D112" s="25">
+        <v>202</v>
+      </c>
+      <c r="E112" s="26">
+        <v>3.5530304232795791</v>
+      </c>
+      <c r="F112" s="27">
+        <v>73167</v>
+      </c>
+      <c r="G112" s="34">
+        <v>42</v>
+      </c>
+      <c r="H112" s="26">
+        <v>21.994444444444419</v>
+      </c>
+      <c r="I112" s="28">
+        <v>0.2455</v>
+      </c>
+      <c r="J112" s="29">
+        <v>56942</v>
+      </c>
+      <c r="K112" t="s">
+        <v>13</v>
+      </c>
+      <c r="L112" t="s">
+        <v>4</v>
+      </c>
+      <c r="M112" s="25">
+        <v>362</v>
+      </c>
+      <c r="N112" s="25">
+        <v>447</v>
+      </c>
+      <c r="O112" s="25">
+        <v>109724</v>
+      </c>
+      <c r="P112" s="9">
+        <f>N112/O112*100</f>
+        <v>0.40738580438190364</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>297</v>
+      </c>
+      <c r="B113" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D113" s="25">
+        <v>513</v>
+      </c>
+      <c r="E113" s="26">
+        <v>3.821934837323814</v>
+      </c>
+      <c r="F113" s="27">
+        <v>32538</v>
+      </c>
+      <c r="G113" s="34">
+        <v>41</v>
+      </c>
+      <c r="H113" s="26">
+        <v>28.816666666666659</v>
+      </c>
+      <c r="I113" s="28">
+        <v>0.22140000000000001</v>
+      </c>
+      <c r="J113" s="29">
+        <v>27137</v>
+      </c>
+      <c r="K113" t="s">
+        <v>9</v>
+      </c>
+      <c r="L113" t="s">
+        <v>11</v>
+      </c>
+      <c r="M113" s="25">
+        <v>683</v>
+      </c>
+      <c r="N113" s="25">
+        <v>754</v>
+      </c>
+      <c r="O113" s="25">
+        <v>92738</v>
+      </c>
+      <c r="P113" s="9">
+        <f>N113/O113*100</f>
+        <v>0.81304319696348848</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>299</v>
+      </c>
+      <c r="B114" t="s">
+        <v>300</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D114" s="25">
+        <v>156</v>
+      </c>
+      <c r="E114" s="26">
+        <v>2.5173360730721011</v>
+      </c>
+      <c r="F114" s="27">
+        <v>728453</v>
+      </c>
+      <c r="G114" s="34">
+        <v>10</v>
+      </c>
+      <c r="H114" s="26">
+        <v>6.9916666666666663</v>
+      </c>
+      <c r="I114" s="28">
+        <v>0.70519999999999994</v>
+      </c>
+      <c r="J114" s="29">
+        <v>211827</v>
+      </c>
+      <c r="K114" t="s">
+        <v>35</v>
+      </c>
+      <c r="L114" t="s">
+        <v>36</v>
+      </c>
+      <c r="M114" s="25">
+        <v>2055</v>
+      </c>
+      <c r="N114" s="25">
+        <v>8196</v>
+      </c>
+      <c r="O114" s="25">
+        <v>183648</v>
+      </c>
+      <c r="P114" s="9">
+        <f>N114/O114*100</f>
+        <v>4.4628855201254574</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>302</v>
+      </c>
+      <c r="B115" t="s">
+        <v>303</v>
+      </c>
+      <c r="C115" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D115" s="25">
+        <v>252</v>
+      </c>
+      <c r="E115" s="26">
+        <v>4.0092982918801354</v>
+      </c>
+      <c r="F115" s="27">
+        <v>17105</v>
+      </c>
+      <c r="G115" s="34">
+        <v>46</v>
+      </c>
+      <c r="H115" s="26">
+        <v>23.740065681444989</v>
+      </c>
+      <c r="I115" s="28">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="J115" s="29">
+        <v>19484</v>
+      </c>
+      <c r="K115" t="s">
+        <v>34</v>
+      </c>
+      <c r="L115" t="s">
+        <v>36</v>
+      </c>
+      <c r="M115" s="25">
+        <v>323</v>
+      </c>
+      <c r="N115" s="25">
+        <v>297</v>
+      </c>
+      <c r="O115" s="25">
+        <v>253359</v>
+      </c>
+      <c r="P115" s="9">
+        <f>N115/O115*100</f>
+        <v>0.11722496536535115</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>304</v>
+      </c>
+      <c r="B116" t="s">
+        <v>305</v>
+      </c>
+      <c r="C116" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D116" s="25">
+        <v>219</v>
+      </c>
+      <c r="E116" s="26">
+        <v>3.6445595999317471</v>
+      </c>
+      <c r="F116" s="27">
+        <v>56389</v>
+      </c>
+      <c r="G116" s="34">
+        <v>45</v>
+      </c>
+      <c r="H116" s="26">
+        <v>19.73728771228771</v>
+      </c>
+      <c r="I116" s="28">
+        <v>0.25130000000000002</v>
+      </c>
+      <c r="J116" s="29">
+        <v>46342</v>
+      </c>
+      <c r="K116" t="s">
+        <v>306</v>
+      </c>
+      <c r="L116" t="s">
+        <v>18</v>
+      </c>
+      <c r="M116" s="25">
+        <v>3287</v>
+      </c>
+      <c r="N116" s="25">
+        <v>3957</v>
+      </c>
+      <c r="O116" s="25">
+        <v>278898</v>
+      </c>
+      <c r="P116" s="9">
+        <f>N116/O116*100</f>
+        <v>1.4187982703353914</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>307</v>
+      </c>
+      <c r="B117" t="s">
+        <v>237</v>
+      </c>
+      <c r="C117" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D117" s="25">
+        <v>397</v>
+      </c>
+      <c r="E117" s="26">
+        <v>3.2907776640548478</v>
+      </c>
+      <c r="F117" s="27">
+        <v>144012</v>
+      </c>
+      <c r="G117" s="34">
+        <v>47</v>
+      </c>
+      <c r="H117" s="26">
+        <v>22.15952380952379</v>
+      </c>
+      <c r="I117" s="28">
+        <v>0.18129999999999999</v>
+      </c>
+      <c r="J117" s="29">
+        <v>134357</v>
+      </c>
+      <c r="K117" t="s">
+        <v>35</v>
+      </c>
+      <c r="L117" t="s">
+        <v>36</v>
+      </c>
+      <c r="M117" s="25">
+        <v>1202</v>
+      </c>
+      <c r="N117" s="25">
+        <v>1328</v>
+      </c>
+      <c r="O117" s="25">
+        <v>183648</v>
+      </c>
+      <c r="P117" s="9">
+        <f>N117/O117*100</f>
+        <v>0.72312249520822447</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>308</v>
+      </c>
+      <c r="B118" t="s">
+        <v>309</v>
+      </c>
+      <c r="C118" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D118" s="25">
+        <v>84</v>
+      </c>
+      <c r="E118" s="26">
+        <v>2.688693799439414</v>
+      </c>
+      <c r="F118" s="27">
+        <v>524235</v>
+      </c>
+      <c r="G118" s="34">
+        <v>16</v>
+      </c>
+      <c r="H118" s="26">
+        <v>8.5166666666666657</v>
+      </c>
+      <c r="I118" s="28">
+        <v>0.15970000000000001</v>
+      </c>
+      <c r="J118" s="29">
+        <v>496680</v>
+      </c>
+      <c r="K118" t="s">
+        <v>140</v>
+      </c>
+      <c r="L118" t="s">
+        <v>4</v>
+      </c>
+      <c r="M118" s="25">
+        <v>1978</v>
+      </c>
+      <c r="N118" s="25">
+        <v>2036</v>
+      </c>
+      <c r="O118" s="25">
+        <v>105029</v>
+      </c>
+      <c r="P118" s="9">
+        <f>N118/O118*100</f>
+        <v>1.9385122204343561</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>310</v>
+      </c>
+      <c r="B119" t="s">
+        <v>311</v>
+      </c>
+      <c r="C119" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D119" s="25">
+        <v>87</v>
+      </c>
+      <c r="E119" s="26">
+        <v>3.0711728933205662</v>
+      </c>
+      <c r="F119" s="27">
+        <v>238129</v>
+      </c>
+      <c r="G119" s="34">
+        <v>17</v>
+      </c>
+      <c r="H119" s="26">
+        <v>12.699603174603171</v>
+      </c>
+      <c r="I119" s="28">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="J119" s="29">
+        <v>263433</v>
+      </c>
+      <c r="K119" t="s">
+        <v>312</v>
+      </c>
+      <c r="L119" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="25">
+        <v>2702</v>
+      </c>
+      <c r="N119" s="25">
+        <v>2613</v>
+      </c>
+      <c r="O119" s="25">
+        <v>224174</v>
+      </c>
+      <c r="P119" s="9">
+        <f>N119/O119*100</f>
+        <v>1.1656124260618983</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>313</v>
+      </c>
+      <c r="B120" t="s">
+        <v>314</v>
+      </c>
+      <c r="C120" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D120" s="25">
+        <v>976</v>
+      </c>
+      <c r="E120" s="26">
+        <v>3.987616279971157</v>
+      </c>
+      <c r="F120" s="27">
+        <v>18502</v>
+      </c>
+      <c r="G120" s="34">
+        <v>88</v>
+      </c>
+      <c r="H120" s="26">
+        <v>44.107622932622967</v>
+      </c>
+      <c r="I120" s="28">
+        <v>0.1057</v>
+      </c>
+      <c r="J120" s="29">
+        <v>20056</v>
+      </c>
+      <c r="K120" t="s">
+        <v>44</v>
+      </c>
+      <c r="L120" t="s">
+        <v>45</v>
+      </c>
+      <c r="M120" s="25">
+        <v>57</v>
+      </c>
+      <c r="N120" s="25">
+        <v>54</v>
+      </c>
+      <c r="O120" s="25">
+        <v>58351</v>
+      </c>
+      <c r="P120" s="9">
+        <f>N120/O120*100</f>
+        <v>9.2543401141368609E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>315</v>
+      </c>
+      <c r="B121" t="s">
+        <v>316</v>
+      </c>
+      <c r="C121" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D121" s="25">
+        <v>318</v>
+      </c>
+      <c r="E121" s="26">
+        <v>3.4358795819564301</v>
+      </c>
+      <c r="F121" s="27">
+        <v>100114</v>
+      </c>
+      <c r="G121" s="34">
+        <v>40</v>
+      </c>
+      <c r="H121" s="26">
+        <v>17.853690753690749</v>
+      </c>
+      <c r="I121" s="28">
+        <v>0.20699999999999999</v>
+      </c>
+      <c r="J121" s="29">
+        <v>82757</v>
+      </c>
+      <c r="K121" t="s">
+        <v>317</v>
+      </c>
+      <c r="L121" t="s">
+        <v>145</v>
+      </c>
+      <c r="M121" s="25">
+        <v>3505</v>
+      </c>
+      <c r="N121" s="25">
+        <v>4169</v>
+      </c>
+      <c r="O121" s="25">
+        <v>189264</v>
+      </c>
+      <c r="P121" s="9">
+        <f>N121/O121*100</f>
+        <v>2.2027432580945137</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>318</v>
+      </c>
+      <c r="B122" t="s">
+        <v>319</v>
+      </c>
+      <c r="C122" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="D122" s="25">
+        <v>202</v>
+      </c>
+      <c r="E122" s="26">
+        <v>2.912417442775789</v>
+      </c>
+      <c r="F122" s="27">
+        <v>333561</v>
+      </c>
+      <c r="G122" s="34">
+        <v>22</v>
+      </c>
+      <c r="H122" s="26">
+        <v>10.694444444444439</v>
+      </c>
+      <c r="I122" s="28">
+        <v>0.2676</v>
+      </c>
+      <c r="J122" s="29">
+        <v>226183</v>
+      </c>
+      <c r="K122" t="s">
+        <v>3</v>
+      </c>
+      <c r="L122" t="s">
+        <v>4</v>
+      </c>
+      <c r="M122" s="25">
+        <v>1184</v>
+      </c>
+      <c r="N122" s="25">
+        <v>1862</v>
+      </c>
+      <c r="O122" s="25">
+        <v>66189</v>
+      </c>
+      <c r="P122" s="9">
+        <f>N122/O122*100</f>
+        <v>2.8131562646361177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>320</v>
+      </c>
+      <c r="B123" t="s">
+        <v>321</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="D123" s="25">
+        <v>294</v>
+      </c>
+      <c r="E123" s="26">
+        <v>3.015932778835273</v>
+      </c>
+      <c r="F123" s="27">
+        <v>268140</v>
+      </c>
+      <c r="G123" s="34">
+        <v>32</v>
+      </c>
+      <c r="H123" s="26">
+        <v>14.6536186036186</v>
+      </c>
+      <c r="I123" s="28">
+        <v>0.16539999999999999</v>
+      </c>
+      <c r="J123" s="29">
+        <v>217063</v>
+      </c>
+      <c r="K123" t="s">
+        <v>86</v>
+      </c>
+      <c r="L123" t="s">
+        <v>11</v>
+      </c>
+      <c r="M123" s="25">
+        <v>950</v>
+      </c>
+      <c r="N123" s="25">
+        <v>1068</v>
+      </c>
+      <c r="O123" s="25">
+        <v>64512</v>
+      </c>
+      <c r="P123" s="9">
+        <f>N123/O123*100</f>
+        <v>1.6555059523809523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>74</v>
+      </c>
+      <c r="B124" t="s">
+        <v>323</v>
+      </c>
+      <c r="C124" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D124" s="25">
+        <v>53</v>
+      </c>
+      <c r="E124" s="26">
+        <v>2.924952295312603</v>
+      </c>
+      <c r="F124" s="27">
+        <v>324895</v>
+      </c>
+      <c r="G124" s="34">
+        <v>22</v>
+      </c>
+      <c r="H124" s="26">
+        <v>10.81666666666667</v>
+      </c>
+      <c r="I124" s="28">
+        <v>4.53E-2</v>
+      </c>
+      <c r="J124" s="29">
+        <v>365082</v>
+      </c>
+      <c r="K124" t="s">
+        <v>35</v>
+      </c>
+      <c r="L124" t="s">
+        <v>36</v>
+      </c>
+      <c r="M124" s="25">
+        <v>3821</v>
+      </c>
+      <c r="N124" s="25">
+        <v>3247</v>
+      </c>
+      <c r="O124" s="25">
+        <v>183648</v>
+      </c>
+      <c r="P124" s="9">
+        <f>N124/O124*100</f>
+        <v>1.768056281582157</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>324</v>
+      </c>
+      <c r="B125" t="s">
+        <v>325</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D125" s="25">
+        <v>153</v>
+      </c>
+      <c r="E125" s="26">
+        <v>3.2671426498328682</v>
+      </c>
+      <c r="F125" s="27">
+        <v>152371</v>
+      </c>
+      <c r="G125" s="34">
+        <v>29</v>
+      </c>
+      <c r="H125" s="26">
+        <v>11.956919469419461</v>
+      </c>
+      <c r="I125" s="28">
+        <v>0.10639999999999999</v>
+      </c>
+      <c r="J125" s="29">
+        <v>155306</v>
+      </c>
+      <c r="K125" t="s">
+        <v>326</v>
+      </c>
+      <c r="L125" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" s="25">
+        <v>1434</v>
+      </c>
+      <c r="N125" s="25">
+        <v>1460</v>
+      </c>
+      <c r="O125" s="25">
+        <v>101860</v>
+      </c>
+      <c r="P125" s="9">
+        <f>N125/O125*100</f>
+        <v>1.4333398782642843</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>327</v>
+      </c>
+      <c r="B126" t="s">
+        <v>328</v>
+      </c>
+      <c r="C126" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D126" s="25">
+        <v>187</v>
+      </c>
+      <c r="E126" s="26">
+        <v>3.463414238008522</v>
+      </c>
+      <c r="F126" s="27">
+        <v>93175</v>
+      </c>
+      <c r="G126" s="34">
+        <v>38</v>
+      </c>
+      <c r="H126" s="26">
+        <v>17.758026461301242</v>
+      </c>
+      <c r="I126" s="28">
+        <v>9.6099999999999991E-2</v>
+      </c>
+      <c r="J126" s="29">
+        <v>104714</v>
+      </c>
+      <c r="K126" t="s">
+        <v>115</v>
+      </c>
+      <c r="L126" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" s="25">
+        <v>300</v>
+      </c>
+      <c r="N126" s="25">
+        <v>288</v>
+      </c>
+      <c r="O126" s="25">
+        <v>22656</v>
+      </c>
+      <c r="P126" s="9">
+        <f>N126/O126*100</f>
+        <v>1.2711864406779663</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>329</v>
+      </c>
+      <c r="B127" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="25">
+        <v>75</v>
+      </c>
+      <c r="E127" s="26">
+        <v>3.1003720382501712</v>
+      </c>
+      <c r="F127" s="27">
+        <v>223310</v>
+      </c>
+      <c r="G127" s="34">
+        <v>17</v>
+      </c>
+      <c r="H127" s="26">
+        <v>9.0666666666666647</v>
+      </c>
+      <c r="I127" s="28">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="J127" s="29">
+        <v>249116</v>
+      </c>
+      <c r="K127" t="s">
+        <v>34</v>
+      </c>
+      <c r="L127" t="s">
+        <v>36</v>
+      </c>
+      <c r="M127" s="25">
+        <v>4299</v>
+      </c>
+      <c r="N127" s="25">
+        <v>3740</v>
+      </c>
+      <c r="O127" s="25">
+        <v>253359</v>
+      </c>
+      <c r="P127" s="9">
+        <f>N127/O127*100</f>
+        <v>1.4761662305266441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>331</v>
+      </c>
+      <c r="B128" t="s">
+        <v>332</v>
+      </c>
+      <c r="C128" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D128" s="25">
+        <v>22</v>
+      </c>
+      <c r="E128" s="26">
+        <v>3.0130225071890031</v>
+      </c>
+      <c r="F128" s="27">
+        <v>269823</v>
+      </c>
+      <c r="G128" s="34">
+        <v>9</v>
+      </c>
+      <c r="H128" s="26">
+        <v>6.8999999999999986</v>
+      </c>
+      <c r="I128" s="28">
+        <v>9.5899999999999999E-2</v>
+      </c>
+      <c r="J128" s="29">
+        <v>290600</v>
+      </c>
+      <c r="K128" t="s">
+        <v>156</v>
+      </c>
+      <c r="L128" t="s">
+        <v>4</v>
+      </c>
+      <c r="M128" s="25">
+        <v>651</v>
+      </c>
+      <c r="N128" s="25">
+        <v>549</v>
+      </c>
+      <c r="O128" s="25">
+        <v>51361</v>
+      </c>
+      <c r="P128" s="9">
+        <f>N128/O128*100</f>
+        <v>1.0689044216428807</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>333</v>
+      </c>
+      <c r="B129" t="s">
+        <v>334</v>
+      </c>
+      <c r="C129" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D129" s="25">
+        <v>126</v>
+      </c>
+      <c r="E129" s="26">
+        <v>3.646645856206848</v>
+      </c>
+      <c r="F129" s="27">
+        <v>56034</v>
+      </c>
+      <c r="G129" s="34">
+        <v>36</v>
+      </c>
+      <c r="H129" s="26">
+        <v>22.702380952380949</v>
+      </c>
+      <c r="I129" s="28">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="J129" s="29">
+        <v>50203</v>
+      </c>
+      <c r="K129" t="s">
+        <v>10</v>
+      </c>
+      <c r="L129" t="s">
+        <v>60</v>
+      </c>
+      <c r="M129" s="25">
+        <v>1019</v>
+      </c>
+      <c r="N129" s="25">
+        <v>1073</v>
+      </c>
+      <c r="O129" s="25">
+        <v>144918</v>
+      </c>
+      <c r="P129" s="9">
+        <f>N129/O129*100</f>
+        <v>0.74041871955174643</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>335</v>
+      </c>
+      <c r="B130" t="s">
+        <v>336</v>
+      </c>
+      <c r="C130" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D130" s="25">
+        <v>146</v>
+      </c>
+      <c r="E130" s="26">
+        <v>3.7915915890711549</v>
+      </c>
+      <c r="F130" s="27">
+        <v>35886</v>
+      </c>
+      <c r="G130" s="34">
+        <v>41</v>
+      </c>
+      <c r="H130" s="26">
+        <v>20.970041946357728</v>
+      </c>
+      <c r="I130" s="28">
+        <v>0.10009999999999999</v>
+      </c>
+      <c r="J130" s="29">
+        <v>39289</v>
+      </c>
+      <c r="K130" t="s">
+        <v>161</v>
+      </c>
+      <c r="L130" t="s">
+        <v>18</v>
+      </c>
+      <c r="M130" s="25">
+        <v>1703</v>
+      </c>
+      <c r="N130" s="25">
+        <v>1614</v>
+      </c>
+      <c r="O130" s="25">
+        <v>271773</v>
+      </c>
+      <c r="P130" s="9">
+        <f>N130/O130*100</f>
+        <v>0.59387797904869133</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>337</v>
+      </c>
+      <c r="B131" t="s">
+        <v>338</v>
+      </c>
+      <c r="C131" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D131" s="25">
+        <v>87</v>
+      </c>
+      <c r="E131" s="26">
+        <v>3.4083486433845809</v>
+      </c>
+      <c r="F131" s="27">
+        <v>107565</v>
+      </c>
+      <c r="G131" s="34">
+        <v>37</v>
+      </c>
+      <c r="H131" s="26">
+        <v>9.2324013846548851</v>
+      </c>
+      <c r="I131" s="28">
+        <v>5.5999999999999987E-2</v>
+      </c>
+      <c r="J131" s="29">
+        <v>120197</v>
+      </c>
+      <c r="K131" t="s">
+        <v>161</v>
+      </c>
+      <c r="L131" t="s">
+        <v>18</v>
+      </c>
+      <c r="M131" s="25">
+        <v>4470</v>
+      </c>
+      <c r="N131" s="25">
+        <v>4221</v>
+      </c>
+      <c r="O131" s="25">
+        <v>271773</v>
+      </c>
+      <c r="P131" s="9">
+        <f>N131/O131*100</f>
+        <v>1.5531344173262245</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>339</v>
+      </c>
+      <c r="B132" t="s">
+        <v>340</v>
+      </c>
+      <c r="C132" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D132" s="25">
+        <v>132</v>
+      </c>
+      <c r="E132" s="26">
+        <v>3.1060675262767221</v>
+      </c>
+      <c r="F132" s="27">
+        <v>220478</v>
+      </c>
+      <c r="G132" s="34">
+        <v>17</v>
+      </c>
+      <c r="H132" s="26">
+        <v>11.5</v>
+      </c>
+      <c r="I132" s="28">
+        <v>0.1678</v>
+      </c>
+      <c r="J132" s="29">
+        <v>192943</v>
+      </c>
+      <c r="K132" t="s">
+        <v>35</v>
+      </c>
+      <c r="L132" t="s">
+        <v>36</v>
+      </c>
+      <c r="M132" s="25">
+        <v>1846</v>
+      </c>
+      <c r="N132" s="25">
+        <v>2106</v>
+      </c>
+      <c r="O132" s="25">
+        <v>183648</v>
+      </c>
+      <c r="P132" s="9">
+        <f>N132/O132*100</f>
+        <v>1.1467590172503921</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>341</v>
+      </c>
+      <c r="B133" t="s">
+        <v>342</v>
+      </c>
+      <c r="C133" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D133" s="25">
+        <v>222</v>
+      </c>
+      <c r="E133" s="26">
+        <v>3.2618491609015789</v>
+      </c>
+      <c r="F133" s="27">
+        <v>154302</v>
+      </c>
+      <c r="G133" s="34">
+        <v>40</v>
+      </c>
+      <c r="H133" s="26">
+        <v>13.9978716166874</v>
+      </c>
+      <c r="I133" s="28">
+        <v>0.1764</v>
+      </c>
+      <c r="J133" s="29">
+        <v>159581</v>
+      </c>
+      <c r="K133" t="s">
+        <v>166</v>
+      </c>
+      <c r="L133" t="s">
+        <v>18</v>
+      </c>
+      <c r="M133" s="25">
+        <v>1149</v>
+      </c>
+      <c r="N133" s="25">
+        <v>1135</v>
+      </c>
+      <c r="O133" s="25">
+        <v>65331</v>
+      </c>
+      <c r="P133" s="9">
+        <f>N133/O133*100</f>
+        <v>1.7373069446357778</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>343</v>
+      </c>
+      <c r="B134" t="s">
+        <v>344</v>
+      </c>
+      <c r="C134" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D134" s="25">
+        <v>189</v>
+      </c>
+      <c r="E134" s="26">
+        <v>2.890837912357568</v>
+      </c>
+      <c r="F134" s="27">
+        <v>348821</v>
+      </c>
+      <c r="G134" s="34">
+        <v>18</v>
+      </c>
+      <c r="H134" s="26">
+        <v>11.984956709956711</v>
+      </c>
+      <c r="I134" s="28">
+        <v>0.16289999999999999</v>
+      </c>
+      <c r="J134" s="29">
+        <v>328668</v>
+      </c>
+      <c r="K134" t="s">
+        <v>35</v>
+      </c>
+      <c r="L134" t="s">
+        <v>36</v>
+      </c>
+      <c r="M134" s="25">
+        <v>3365</v>
+      </c>
+      <c r="N134" s="25">
+        <v>3540</v>
+      </c>
+      <c r="O134" s="25">
+        <v>183648</v>
+      </c>
+      <c r="P134" s="9">
+        <f>N134/O134*100</f>
+        <v>1.9276006272869839</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>345</v>
+      </c>
+      <c r="B135" t="s">
+        <v>346</v>
+      </c>
+      <c r="C135" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D135" s="25">
+        <v>82</v>
+      </c>
+      <c r="E135" s="26">
+        <v>3.655357356106661</v>
+      </c>
+      <c r="F135" s="27">
+        <v>54531</v>
+      </c>
+      <c r="G135" s="34">
+        <v>35</v>
+      </c>
+      <c r="H135" s="26">
+        <v>12.752977095368401</v>
+      </c>
+      <c r="I135" s="28">
+        <v>0.129</v>
+      </c>
+      <c r="J135" s="29">
+        <v>57815</v>
+      </c>
+      <c r="K135" t="s">
+        <v>347</v>
+      </c>
+      <c r="L135" t="s">
+        <v>18</v>
+      </c>
+      <c r="M135" s="25">
+        <v>1710</v>
+      </c>
+      <c r="N135" s="25">
+        <v>1660</v>
+      </c>
+      <c r="O135" s="25">
+        <v>127911</v>
+      </c>
+      <c r="P135" s="9">
+        <f>N135/O135*100</f>
+        <v>1.297777360821196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>348</v>
+      </c>
+      <c r="B136" t="s">
+        <v>349</v>
+      </c>
+      <c r="C136" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D136" s="25">
+        <v>86</v>
+      </c>
+      <c r="E136" s="26">
+        <v>3.5277627551504041</v>
+      </c>
+      <c r="F136" s="27">
+        <v>78521</v>
+      </c>
+      <c r="G136" s="34">
+        <v>22</v>
+      </c>
+      <c r="H136" s="26">
+        <v>15.53333333333333</v>
+      </c>
+      <c r="I136" s="28">
+        <v>0.16719999999999999</v>
+      </c>
+      <c r="J136" s="29">
+        <v>81486</v>
+      </c>
+      <c r="K136" t="s">
+        <v>35</v>
+      </c>
+      <c r="L136" t="s">
+        <v>36</v>
+      </c>
+      <c r="M136" s="25">
+        <v>685</v>
+      </c>
+      <c r="N136" s="25">
+        <v>662</v>
+      </c>
+      <c r="O136" s="25">
+        <v>183648</v>
+      </c>
+      <c r="P136" s="9">
+        <f>N136/O136*100</f>
+        <v>0.36047220770169019</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>350</v>
+      </c>
+      <c r="B137" t="s">
+        <v>351</v>
+      </c>
+      <c r="C137" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D137" s="25">
+        <v>452</v>
+      </c>
+      <c r="E137" s="26">
+        <v>3.687091295070037</v>
+      </c>
+      <c r="F137" s="27">
+        <v>49691</v>
+      </c>
+      <c r="G137" s="34">
+        <v>37</v>
+      </c>
+      <c r="H137" s="26">
+        <v>22.517857142857139</v>
+      </c>
+      <c r="I137" s="28">
+        <v>0.1429</v>
+      </c>
+      <c r="J137" s="29">
+        <v>44480</v>
+      </c>
+      <c r="K137" t="s">
+        <v>48</v>
+      </c>
+      <c r="L137" t="s">
+        <v>4</v>
+      </c>
+      <c r="M137" s="25">
+        <v>333</v>
+      </c>
+      <c r="N137" s="25">
+        <v>362</v>
+      </c>
+      <c r="O137" s="25">
+        <v>96361</v>
+      </c>
+      <c r="P137" s="9">
+        <f>N137/O137*100</f>
+        <v>0.37567065514056514</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>352</v>
+      </c>
+      <c r="B138" t="s">
+        <v>353</v>
+      </c>
+      <c r="C138" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D138" s="25">
+        <v>177</v>
+      </c>
+      <c r="E138" s="26">
+        <v>3.7144151167436319</v>
+      </c>
+      <c r="F138" s="27">
+        <v>45819</v>
+      </c>
+      <c r="G138" s="34">
+        <v>34</v>
+      </c>
+      <c r="H138" s="26">
+        <v>13.937821044736509</v>
+      </c>
+      <c r="I138" s="28">
+        <v>0.15629999999999999</v>
+      </c>
+      <c r="J138" s="29">
+        <v>44819</v>
+      </c>
+      <c r="K138" t="s">
+        <v>326</v>
+      </c>
+      <c r="L138" t="s">
+        <v>18</v>
+      </c>
+      <c r="M138" s="25">
+        <v>316</v>
+      </c>
+      <c r="N138" s="25">
+        <v>336</v>
+      </c>
+      <c r="O138" s="25">
+        <v>101860</v>
+      </c>
+      <c r="P138" s="9">
+        <f>N138/O138*100</f>
+        <v>0.32986451992931476</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>354</v>
+      </c>
+      <c r="B139" t="s">
+        <v>314</v>
+      </c>
+      <c r="C139" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D139" s="25">
+        <v>233</v>
+      </c>
+      <c r="E139" s="26">
+        <v>3.773993866668834</v>
+      </c>
+      <c r="F139" s="27">
+        <v>37997</v>
+      </c>
+      <c r="G139" s="34">
+        <v>35</v>
+      </c>
+      <c r="H139" s="26">
+        <v>23.783333333333331</v>
+      </c>
+      <c r="I139" s="28">
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="J139" s="29">
+        <v>32847</v>
+      </c>
+      <c r="K139" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" t="s">
+        <v>4</v>
+      </c>
+      <c r="M139" s="25">
+        <v>99</v>
+      </c>
+      <c r="N139" s="25">
+        <v>118</v>
+      </c>
+      <c r="O139" s="25">
+        <v>26063</v>
+      </c>
+      <c r="P139" s="9">
+        <f>N139/O139*100</f>
+        <v>0.4527491079307831</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>355</v>
+      </c>
+      <c r="B140" t="s">
+        <v>356</v>
+      </c>
+      <c r="C140" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D140" s="25">
+        <v>293</v>
+      </c>
+      <c r="E140" s="26">
+        <v>2.584736195095608</v>
+      </c>
+      <c r="F140" s="27">
+        <v>640929</v>
+      </c>
+      <c r="G140" s="34">
+        <v>12</v>
+      </c>
+      <c r="H140" s="26">
+        <v>6.8369047619047638</v>
+      </c>
+      <c r="I140" s="28">
+        <v>0.45979999999999999</v>
+      </c>
+      <c r="J140" s="29">
+        <v>279914</v>
+      </c>
+      <c r="K140" t="s">
+        <v>87</v>
+      </c>
+      <c r="L140" t="s">
+        <v>28</v>
+      </c>
+      <c r="M140" s="25">
+        <v>1311</v>
+      </c>
+      <c r="N140" s="25">
+        <v>3388</v>
+      </c>
+      <c r="O140" s="25">
+        <v>108280</v>
+      </c>
+      <c r="P140" s="9">
+        <f>N140/O140*100</f>
+        <v>3.1289250092353158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>357</v>
+      </c>
+      <c r="B141" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D141" s="25">
+        <v>50</v>
+      </c>
+      <c r="E141" s="26">
+        <v>3.731942564986698</v>
+      </c>
+      <c r="F141" s="27">
+        <v>43393</v>
+      </c>
+      <c r="G141" s="34">
+        <v>28</v>
+      </c>
+      <c r="H141" s="26">
+        <v>17.166666666666661</v>
+      </c>
+      <c r="I141" s="28">
+        <v>5.7599999999999998E-2</v>
+      </c>
+      <c r="J141" s="29">
+        <v>50054</v>
+      </c>
+      <c r="K141" t="s">
+        <v>359</v>
+      </c>
+      <c r="L141" t="s">
+        <v>78</v>
+      </c>
+      <c r="M141" s="25">
+        <v>88</v>
+      </c>
+      <c r="N141" s="25">
+        <v>90</v>
+      </c>
+      <c r="O141" s="25">
+        <v>11636</v>
+      </c>
+      <c r="P141" s="9">
+        <f>N141/O141*100</f>
+        <v>0.77346167067720872</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>360</v>
+      </c>
+      <c r="B142" t="s">
+        <v>361</v>
+      </c>
+      <c r="C142" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D142" s="25">
+        <v>87</v>
+      </c>
+      <c r="E142" s="26">
+        <v>3.413855943198854</v>
+      </c>
+      <c r="F142" s="27">
+        <v>106021</v>
+      </c>
+      <c r="G142" s="34">
+        <v>23</v>
+      </c>
+      <c r="H142" s="26">
+        <v>17.75</v>
+      </c>
+      <c r="I142" s="28">
+        <v>0.10390000000000001</v>
+      </c>
+      <c r="J142" s="29">
+        <v>113635</v>
+      </c>
+      <c r="K142" t="s">
+        <v>13</v>
+      </c>
+      <c r="L142" t="s">
+        <v>4</v>
+      </c>
+      <c r="M142" s="25">
+        <v>809</v>
+      </c>
+      <c r="N142" s="25">
+        <v>686</v>
+      </c>
+      <c r="O142" s="25">
+        <v>109724</v>
+      </c>
+      <c r="P142" s="9">
+        <f>N142/O142*100</f>
+        <v>0.62520505996864861</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>362</v>
+      </c>
+      <c r="B143" t="s">
+        <v>363</v>
+      </c>
+      <c r="C143" s="30" t="s">
+        <v>364</v>
+      </c>
+      <c r="D143" s="25">
+        <v>298</v>
+      </c>
+      <c r="E143" s="26">
+        <v>3.339796995243697</v>
+      </c>
+      <c r="F143" s="27">
+        <v>127620</v>
+      </c>
+      <c r="G143" s="34">
+        <v>21</v>
+      </c>
+      <c r="H143" s="26">
+        <v>16.383333333333329</v>
+      </c>
+      <c r="I143" s="28">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="J143" s="29">
+        <v>106139</v>
+      </c>
+      <c r="K143" t="s">
+        <v>34</v>
+      </c>
+      <c r="L143" t="s">
+        <v>36</v>
+      </c>
+      <c r="M143" s="25">
+        <v>1695</v>
+      </c>
+      <c r="N143" s="25">
+        <v>2042</v>
+      </c>
+      <c r="O143" s="25">
+        <v>253359</v>
+      </c>
+      <c r="P143" s="9">
+        <f>N143/O143*100</f>
+        <v>0.80597097399342443</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>365</v>
+      </c>
+      <c r="B144" t="s">
+        <v>366</v>
+      </c>
+      <c r="C144" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D144" s="25">
+        <v>110</v>
+      </c>
+      <c r="E144" s="26">
+        <v>3.895130057229252</v>
+      </c>
+      <c r="F144" s="27">
+        <v>25423</v>
+      </c>
+      <c r="G144" s="34">
+        <v>45</v>
+      </c>
+      <c r="H144" s="26">
+        <v>21.026129426129419</v>
+      </c>
+      <c r="I144" s="28">
+        <v>0.13370000000000001</v>
+      </c>
+      <c r="J144" s="29">
+        <v>24199</v>
+      </c>
+      <c r="K144" t="s">
+        <v>367</v>
+      </c>
+      <c r="L144" t="s">
+        <v>145</v>
+      </c>
+      <c r="M144" s="25">
+        <v>985</v>
+      </c>
+      <c r="N144" s="25">
+        <v>1074</v>
+      </c>
+      <c r="O144" s="25">
+        <v>123644</v>
+      </c>
+      <c r="P144" s="9">
+        <f>N144/O144*100</f>
+        <v>0.86862282035521343</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>368</v>
+      </c>
+      <c r="B145" t="s">
+        <v>369</v>
+      </c>
+      <c r="C145" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="D145" s="25">
+        <v>84</v>
+      </c>
+      <c r="E145" s="26">
+        <v>3.2161514260971038</v>
+      </c>
+      <c r="F145" s="27">
+        <v>171814</v>
+      </c>
+      <c r="G145" s="34">
+        <v>16</v>
+      </c>
+      <c r="H145" s="26">
+        <v>15</v>
+      </c>
+      <c r="I145" s="28">
+        <v>0.33560000000000001</v>
+      </c>
+      <c r="J145" s="29">
+        <v>124653</v>
+      </c>
+      <c r="K145" t="s">
+        <v>370</v>
+      </c>
+      <c r="L145" t="s">
+        <v>90</v>
+      </c>
+      <c r="M145" s="25">
+        <v>616</v>
+      </c>
+      <c r="N145" s="25">
+        <v>981</v>
+      </c>
+      <c r="O145" s="25">
+        <v>70063</v>
+      </c>
+      <c r="P145" s="9">
+        <f>N145/O145*100</f>
+        <v>1.4001684198507058</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>371</v>
+      </c>
+      <c r="B146" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D146" s="25">
+        <v>252</v>
+      </c>
+      <c r="E146" s="26">
+        <v>3.5403316613961699</v>
+      </c>
+      <c r="F146" s="27">
+        <v>75844</v>
+      </c>
+      <c r="G146" s="34">
+        <v>56</v>
+      </c>
+      <c r="H146" s="26">
+        <v>20.78217517776341</v>
+      </c>
+      <c r="I146" s="28">
+        <v>0.1018</v>
+      </c>
+      <c r="J146" s="29">
+        <v>81381</v>
+      </c>
+      <c r="K146" t="s">
+        <v>373</v>
+      </c>
+      <c r="L146" t="s">
+        <v>18</v>
+      </c>
+      <c r="M146" s="25">
+        <v>1477</v>
+      </c>
+      <c r="N146" s="25">
+        <v>1423</v>
+      </c>
+      <c r="O146" s="25">
+        <v>68582</v>
+      </c>
+      <c r="P146" s="9">
+        <f>N146/O146*100</f>
+        <v>2.0748884546965676</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>374</v>
+      </c>
+      <c r="B147" t="s">
+        <v>375</v>
+      </c>
+      <c r="C147" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147" s="25">
+        <v>294</v>
+      </c>
+      <c r="E147" s="26">
+        <v>3.29066597084956</v>
+      </c>
+      <c r="F147" s="27">
+        <v>144037</v>
+      </c>
+      <c r="G147" s="34">
+        <v>40</v>
+      </c>
+      <c r="H147" s="26">
+        <v>17.326176601176591</v>
+      </c>
+      <c r="I147" s="28">
+        <v>0.18410000000000001</v>
+      </c>
+      <c r="J147" s="29">
+        <v>136356</v>
+      </c>
+      <c r="K147" t="s">
+        <v>51</v>
+      </c>
+      <c r="L147" t="s">
+        <v>11</v>
+      </c>
+      <c r="M147" s="25">
+        <v>3944</v>
+      </c>
+      <c r="N147" s="25">
+        <v>3967</v>
+      </c>
+      <c r="O147" s="25">
+        <v>269833</v>
+      </c>
+      <c r="P147" s="9">
+        <f>N147/O147*100</f>
+        <v>1.470168585754893</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>376</v>
+      </c>
+      <c r="B148" t="s">
+        <v>377</v>
+      </c>
+      <c r="C148" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D148" s="25">
+        <v>137</v>
+      </c>
+      <c r="E148" s="26">
+        <v>3.5140711648407241</v>
+      </c>
+      <c r="F148" s="27">
+        <v>81360</v>
+      </c>
+      <c r="G148" s="34">
+        <v>31</v>
+      </c>
+      <c r="H148" s="26">
+        <v>11.93922882672882</v>
+      </c>
+      <c r="I148" s="28">
+        <v>0.1757</v>
+      </c>
+      <c r="J148" s="29">
+        <v>77390</v>
+      </c>
+      <c r="K148" t="s">
+        <v>378</v>
+      </c>
+      <c r="L148" t="s">
+        <v>145</v>
+      </c>
+      <c r="M148" s="25">
+        <v>658</v>
+      </c>
+      <c r="N148" s="25">
+        <v>680</v>
+      </c>
+      <c r="O148" s="25">
+        <v>64670</v>
+      </c>
+      <c r="P148" s="9">
+        <f>N148/O148*100</f>
+        <v>1.0514921911241688</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>379</v>
+      </c>
+      <c r="B149" t="s">
+        <v>187</v>
+      </c>
+      <c r="C149" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D149" s="25">
+        <v>69</v>
+      </c>
+      <c r="E149" s="26">
+        <v>3.094505574401532</v>
+      </c>
+      <c r="F149" s="27">
+        <v>226324</v>
+      </c>
+      <c r="G149" s="34">
+        <v>22</v>
+      </c>
+      <c r="H149" s="26">
+        <v>11.71944444444444</v>
+      </c>
+      <c r="I149" s="28">
+        <v>6.93E-2</v>
+      </c>
+      <c r="J149" s="29">
+        <v>232532</v>
+      </c>
+      <c r="K149" t="s">
+        <v>26</v>
+      </c>
+      <c r="L149" t="s">
+        <v>28</v>
+      </c>
+      <c r="M149" s="25">
+        <v>3068</v>
+      </c>
+      <c r="N149" s="25">
+        <v>2931</v>
+      </c>
+      <c r="O149" s="25">
+        <v>229150</v>
+      </c>
+      <c r="P149" s="9">
+        <f>N149/O149*100</f>
+        <v>1.2790748418066769</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P109">
-    <sortCondition ref="I2:I109"/>
     <sortCondition ref="A2:A109"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
